--- a/Fittech/每日使用.xlsx
+++ b/Fittech/每日使用.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gary_kuo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gary_kuo\Documents\GitHub\ImpDocuments\Fittech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081E0377-7B72-467F-90FA-2DC1CE6DEEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E78D6A-1216-418E-B711-657FD82F1A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FE8E316F-3F34-44BD-B884-7A716B71C90E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{FE8E316F-3F34-44BD-B884-7A716B71C90E}"/>
   </bookViews>
   <sheets>
     <sheet name="每日事項" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="常用線上表單" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="108">
   <si>
     <t>LBT03</t>
   </si>
@@ -964,6 +963,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>QT368846 B2607947良率低於40趴待整批做業完寄信處理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1056,6 +1059,7 @@
 5/23 預計增加吸真空延遲時間 調高真空值 -25
 5/23 調高真空值 -35 持續觀察中
 5/26 維持真空值 -35 持續觀察中
+5/27 維持真空直 -35 持續觀察中
 </t>
     </r>
     <r>
@@ -1073,7 +1077,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QT368846 B2607947良率低於40趴待整批做業完寄信處理</t>
+    <t>LBT03 QT368857-B2607801  
+OCR : 1E85,1E84,1E83,1E82 
+外觀四顆良品 但沒有點測針痕 目前沒反綠 待工程指示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QT368907-B2609167 跳出異常 Exception TrayandPP，MES無作業檔，
+待整批結束HOLD貨，等工程處理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1375,7 +1386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1532,15 +1543,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1548,54 +1607,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1610,26 +1621,23 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2076,8 +2084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7832F80-ECE0-4F7F-9766-693EEFCDF792}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2126,9 +2134,9 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="297" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
@@ -2198,20 +2206,26 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="66" x14ac:dyDescent="0.25">
+      <c r="A26" s="47" t="s">
+        <v>106</v>
+      </c>
       <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+      <c r="A28" s="47" t="s">
+        <v>107</v>
+      </c>
       <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2252,7 +2266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A04C88-AE17-4185-92FD-A4219F45E9D2}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2374,51 +2388,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="G5" s="58" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="G5" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
     </row>
     <row r="6" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -2453,7 +2467,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="53" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -2465,10 +2479,10 @@
       <c r="D7" s="7">
         <v>0.12509999999999999</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="53" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="18" t="s">
@@ -2480,7 +2494,7 @@
       <c r="J7" s="7">
         <v>0.18740000000000001</v>
       </c>
-      <c r="K7" s="59" t="s">
+      <c r="K7" s="65" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="2"/>
@@ -2496,8 +2510,8 @@
       <c r="D8" s="5">
         <v>0</v>
       </c>
-      <c r="E8" s="63"/>
-      <c r="G8" s="53"/>
+      <c r="E8" s="56"/>
+      <c r="G8" s="70"/>
       <c r="H8" s="4" t="s">
         <v>24</v>
       </c>
@@ -2507,7 +2521,7 @@
       <c r="J8" s="5">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="K8" s="59"/>
+      <c r="K8" s="65"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
@@ -2516,11 +2530,11 @@
       <c r="U8" s="11"/>
     </row>
     <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="53"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="59"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="65"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
@@ -2529,7 +2543,7 @@
       <c r="U9" s="12"/>
     </row>
     <row r="10" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="G10" s="53"/>
+      <c r="G10" s="70"/>
       <c r="H10" s="6" t="s">
         <v>2</v>
       </c>
@@ -2539,7 +2553,7 @@
       <c r="J10" s="7">
         <v>0.27289999999999998</v>
       </c>
-      <c r="K10" s="59"/>
+      <c r="K10" s="65"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
@@ -2548,7 +2562,7 @@
       <c r="U10" s="51"/>
     </row>
     <row r="11" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="G11" s="53"/>
+      <c r="G11" s="70"/>
       <c r="H11" s="4" t="s">
         <v>2</v>
       </c>
@@ -2558,7 +2572,7 @@
       <c r="J11" s="5">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="K11" s="59"/>
+      <c r="K11" s="65"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
@@ -2567,14 +2581,14 @@
       <c r="U11" s="51"/>
     </row>
     <row r="12" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G12" s="53"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="59"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="65"/>
     </row>
     <row r="13" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="G13" s="53"/>
+      <c r="G13" s="70"/>
       <c r="H13" s="18" t="s">
         <v>7</v>
       </c>
@@ -2584,7 +2598,7 @@
       <c r="J13" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K13" s="59"/>
+      <c r="K13" s="65"/>
     </row>
     <row r="14" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G14" s="54"/>
@@ -2597,75 +2611,75 @@
       <c r="J14" s="5">
         <v>1E-3</v>
       </c>
-      <c r="K14" s="59"/>
+      <c r="K14" s="65"/>
     </row>
     <row r="18" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
       <c r="R18" s="26"/>
       <c r="S18" s="26"/>
     </row>
     <row r="19" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
       <c r="R19" s="26"/>
       <c r="S19" s="26"/>
     </row>
     <row r="22" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="70" t="s">
+      <c r="G22" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="72"/>
-      <c r="M22" s="60" t="s">
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="69"/>
+      <c r="M22" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="60"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
     </row>
     <row r="23" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -2730,11 +2744,11 @@
       <c r="D24" s="7">
         <v>0.10630000000000001</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="65" t="s">
         <v>32</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="52" t="s">
+      <c r="G24" s="53" t="s">
         <v>10</v>
       </c>
       <c r="H24" s="6" t="s">
@@ -2746,7 +2760,7 @@
       <c r="J24" s="7">
         <v>0.30199999999999999</v>
       </c>
-      <c r="K24" s="62" t="s">
+      <c r="K24" s="55" t="s">
         <v>16</v>
       </c>
       <c r="M24" s="61" t="s">
@@ -2761,7 +2775,7 @@
       <c r="P24" s="36">
         <v>0.12</v>
       </c>
-      <c r="Q24" s="62" t="s">
+      <c r="Q24" s="55" t="s">
         <v>16</v>
       </c>
       <c r="R24" s="22"/>
@@ -2778,7 +2792,7 @@
       <c r="D25" s="5">
         <v>2.29E-2</v>
       </c>
-      <c r="E25" s="59"/>
+      <c r="E25" s="65"/>
       <c r="F25" s="2"/>
       <c r="G25" s="54"/>
       <c r="H25" s="4" t="s">
@@ -2790,7 +2804,7 @@
       <c r="J25" s="5">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K25" s="63"/>
+      <c r="K25" s="56"/>
       <c r="M25" s="61"/>
       <c r="N25" s="4" t="s">
         <v>31</v>
@@ -2801,16 +2815,16 @@
       <c r="P25" s="5">
         <v>2E-3</v>
       </c>
-      <c r="Q25" s="63"/>
+      <c r="Q25" s="56"/>
       <c r="R25" s="22"/>
       <c r="S25" s="20"/>
     </row>
     <row r="26" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A26" s="61"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="59"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="65"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -2818,9 +2832,9 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="M26" s="14"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="65"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
       <c r="Q26" s="31"/>
       <c r="R26" s="22"/>
       <c r="S26" s="20"/>
@@ -2836,7 +2850,7 @@
       <c r="D27" s="8">
         <v>0.17</v>
       </c>
-      <c r="E27" s="59"/>
+      <c r="E27" s="65"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -2862,7 +2876,7 @@
       <c r="D28" s="16">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="E28" s="62"/>
+      <c r="E28" s="55"/>
       <c r="M28" s="14"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
@@ -2886,13 +2900,13 @@
       <c r="S29" s="20"/>
     </row>
     <row r="31" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
@@ -2934,14 +2948,14 @@
       <c r="D33" s="36">
         <v>0.11</v>
       </c>
-      <c r="E33" s="62" t="s">
+      <c r="E33" s="55" t="s">
         <v>16</v>
       </c>
       <c r="M33" s="14"/>
       <c r="N33" s="12"/>
       <c r="O33" s="29"/>
       <c r="P33" s="37"/>
-      <c r="Q33" s="73"/>
+      <c r="Q33" s="58"/>
     </row>
     <row r="34" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A34" s="61"/>
@@ -2954,12 +2968,12 @@
       <c r="D34" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E34" s="63"/>
+      <c r="E34" s="56"/>
       <c r="M34" s="14"/>
       <c r="N34" s="12"/>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
-      <c r="Q34" s="73"/>
+      <c r="Q34" s="58"/>
     </row>
     <row r="36" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
@@ -2983,48 +2997,48 @@
       <c r="E38" s="31"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="64" t="s">
+      <c r="A39" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="64"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="64"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="64"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
     </row>
     <row r="43" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="58" t="s">
+      <c r="A43" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="G43" s="58" t="s">
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="G43" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
     </row>
     <row r="44" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
@@ -3059,7 +3073,7 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="53" t="s">
         <v>80</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -3071,10 +3085,10 @@
       <c r="D45" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E45" s="62" t="s">
+      <c r="E45" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="G45" s="52" t="s">
+      <c r="G45" s="53" t="s">
         <v>102</v>
       </c>
       <c r="H45" s="4" t="s">
@@ -3086,7 +3100,7 @@
       <c r="J45" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="K45" s="62"/>
+      <c r="K45" s="55"/>
     </row>
     <row r="46" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A46" s="54"/>
@@ -3099,22 +3113,25 @@
       <c r="D46" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E46" s="63"/>
+      <c r="E46" s="56"/>
       <c r="G46" s="54"/>
       <c r="H46" s="4"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="63"/>
+      <c r="K46" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="A39:K40"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="G7:G14"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="K7:K14"/>
     <mergeCell ref="Q33:Q34"/>
     <mergeCell ref="N26:P26"/>
     <mergeCell ref="A18:Q19"/>
@@ -3131,16 +3148,13 @@
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="G7:G14"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="K7:K14"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="A39:K40"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="E45:E46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3328,17 +3342,17 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
+      <c r="A43" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A41:A42"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A41:A42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3367,11 +3381,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
       <c r="D1" s="43" t="s">
         <v>75</v>
       </c>
@@ -3438,13 +3452,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="83"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="81"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
@@ -3464,7 +3478,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="82" t="s">
         <v>97</v>
       </c>
       <c r="B11" s="48" t="s">
@@ -3482,7 +3496,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="79"/>
+      <c r="A12" s="83"/>
       <c r="B12" s="48" t="s">
         <v>99</v>
       </c>
@@ -3498,7 +3512,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="82" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="48" t="s">
@@ -3516,7 +3530,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="79"/>
+      <c r="A14" s="83"/>
       <c r="B14" s="48" t="s">
         <v>99</v>
       </c>
@@ -3532,7 +3546,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="82" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="48" t="s">
@@ -3550,7 +3564,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="79"/>
+      <c r="A16" s="83"/>
       <c r="B16" s="48" t="s">
         <v>99</v>
       </c>
@@ -3566,7 +3580,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="82" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="48" t="s">
@@ -3584,7 +3598,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="79"/>
+      <c r="A18" s="83"/>
       <c r="B18" s="48" t="s">
         <v>99</v>
       </c>
@@ -3601,12 +3615,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Fittech/每日使用.xlsx
+++ b/Fittech/每日使用.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gary_kuo\Documents\GitHub\ImpDocuments\Fittech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E78D6A-1216-418E-B711-657FD82F1A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB946854-B505-410A-AD36-E02501BC9451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{FE8E316F-3F34-44BD-B884-7A716B71C90E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FE8E316F-3F34-44BD-B884-7A716B71C90E}"/>
   </bookViews>
   <sheets>
     <sheet name="每日事項" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="110">
   <si>
     <t>LBT03</t>
   </si>
@@ -1083,8 +1083,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QT368907-B2609167 跳出異常 Exception TrayandPP，MES無作業檔，
+    <t>LBT03
+QT368907-B2609167 跳出異常 Exception TrayandPP，MES無作業檔，
 待整批結束HOLD貨，等工程處理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LBT02 軟體更新 調整出料位子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LBT05/06 軟體更新 調整出料位子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1386,7 +1395,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1543,22 +1552,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1582,9 +1606,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1597,17 +1618,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1618,8 +1630,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1633,11 +1648,8 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2084,8 +2096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7832F80-ECE0-4F7F-9766-693EEFCDF792}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2217,39 +2229,54 @@
       <c r="A26" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
+      <c r="A30" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="44" t="s">
+        <v>109</v>
+      </c>
       <c r="B32" s="2"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="84"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
     </row>
   </sheetData>
@@ -2388,51 +2415,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="G5" s="52" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="G5" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
     </row>
     <row r="6" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -2467,7 +2494,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="56" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -2479,10 +2506,10 @@
       <c r="D7" s="7">
         <v>0.12509999999999999</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="56" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="18" t="s">
@@ -2494,13 +2521,13 @@
       <c r="J7" s="7">
         <v>0.18740000000000001</v>
       </c>
-      <c r="K7" s="65" t="s">
+      <c r="K7" s="62" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
@@ -2510,8 +2537,8 @@
       <c r="D8" s="5">
         <v>0</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="G8" s="70"/>
+      <c r="E8" s="55"/>
+      <c r="G8" s="58"/>
       <c r="H8" s="4" t="s">
         <v>24</v>
       </c>
@@ -2521,7 +2548,7 @@
       <c r="J8" s="5">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="K8" s="65"/>
+      <c r="K8" s="62"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
@@ -2530,11 +2557,11 @@
       <c r="U8" s="11"/>
     </row>
     <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="70"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="65"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="62"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
@@ -2543,7 +2570,7 @@
       <c r="U9" s="12"/>
     </row>
     <row r="10" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="G10" s="70"/>
+      <c r="G10" s="58"/>
       <c r="H10" s="6" t="s">
         <v>2</v>
       </c>
@@ -2553,7 +2580,7 @@
       <c r="J10" s="7">
         <v>0.27289999999999998</v>
       </c>
-      <c r="K10" s="65"/>
+      <c r="K10" s="62"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
@@ -2562,7 +2589,7 @@
       <c r="U10" s="51"/>
     </row>
     <row r="11" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="G11" s="70"/>
+      <c r="G11" s="58"/>
       <c r="H11" s="4" t="s">
         <v>2</v>
       </c>
@@ -2572,7 +2599,7 @@
       <c r="J11" s="5">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="K11" s="65"/>
+      <c r="K11" s="62"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
@@ -2581,14 +2608,14 @@
       <c r="U11" s="51"/>
     </row>
     <row r="12" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G12" s="70"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="65"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="62"/>
     </row>
     <row r="13" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="G13" s="70"/>
+      <c r="G13" s="58"/>
       <c r="H13" s="18" t="s">
         <v>7</v>
       </c>
@@ -2598,10 +2625,10 @@
       <c r="J13" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K13" s="65"/>
+      <c r="K13" s="62"/>
     </row>
     <row r="14" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G14" s="54"/>
+      <c r="G14" s="57"/>
       <c r="H14" s="4" t="s">
         <v>7</v>
       </c>
@@ -2611,75 +2638,75 @@
       <c r="J14" s="5">
         <v>1E-3</v>
       </c>
-      <c r="K14" s="65"/>
+      <c r="K14" s="62"/>
     </row>
     <row r="18" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="60"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
       <c r="R18" s="26"/>
       <c r="S18" s="26"/>
     </row>
     <row r="19" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
       <c r="R19" s="26"/>
       <c r="S19" s="26"/>
     </row>
     <row r="22" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="67" t="s">
+      <c r="G22" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="69"/>
-      <c r="M22" s="66" t="s">
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="73"/>
+      <c r="M22" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
     </row>
     <row r="23" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -2732,7 +2759,7 @@
       <c r="S23" s="20"/>
     </row>
     <row r="24" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="66" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -2744,11 +2771,11 @@
       <c r="D24" s="7">
         <v>0.10630000000000001</v>
       </c>
-      <c r="E24" s="65" t="s">
+      <c r="E24" s="62" t="s">
         <v>32</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="53" t="s">
+      <c r="G24" s="56" t="s">
         <v>10</v>
       </c>
       <c r="H24" s="6" t="s">
@@ -2760,10 +2787,10 @@
       <c r="J24" s="7">
         <v>0.30199999999999999</v>
       </c>
-      <c r="K24" s="55" t="s">
+      <c r="K24" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="M24" s="61" t="s">
+      <c r="M24" s="66" t="s">
         <v>23</v>
       </c>
       <c r="N24" s="6" t="s">
@@ -2775,14 +2802,14 @@
       <c r="P24" s="36">
         <v>0.12</v>
       </c>
-      <c r="Q24" s="55" t="s">
+      <c r="Q24" s="54" t="s">
         <v>16</v>
       </c>
       <c r="R24" s="22"/>
       <c r="S24" s="20"/>
     </row>
     <row r="25" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="4" t="s">
         <v>9</v>
       </c>
@@ -2792,9 +2819,9 @@
       <c r="D25" s="5">
         <v>2.29E-2</v>
       </c>
-      <c r="E25" s="65"/>
+      <c r="E25" s="62"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="54"/>
+      <c r="G25" s="57"/>
       <c r="H25" s="4" t="s">
         <v>11</v>
       </c>
@@ -2804,8 +2831,8 @@
       <c r="J25" s="5">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K25" s="56"/>
-      <c r="M25" s="61"/>
+      <c r="K25" s="55"/>
+      <c r="M25" s="66"/>
       <c r="N25" s="4" t="s">
         <v>31</v>
       </c>
@@ -2815,16 +2842,16 @@
       <c r="P25" s="5">
         <v>2E-3</v>
       </c>
-      <c r="Q25" s="56"/>
+      <c r="Q25" s="55"/>
       <c r="R25" s="22"/>
       <c r="S25" s="20"/>
     </row>
     <row r="26" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="65"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="62"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -2832,15 +2859,15 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="M26" s="14"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
       <c r="Q26" s="31"/>
       <c r="R26" s="22"/>
       <c r="S26" s="20"/>
     </row>
     <row r="27" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="6" t="s">
         <v>15</v>
       </c>
@@ -2850,7 +2877,7 @@
       <c r="D27" s="8">
         <v>0.17</v>
       </c>
-      <c r="E27" s="65"/>
+      <c r="E27" s="62"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -2866,7 +2893,7 @@
       <c r="S27" s="20"/>
     </row>
     <row r="28" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="9" t="s">
         <v>12</v>
       </c>
@@ -2876,7 +2903,7 @@
       <c r="D28" s="16">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="E28" s="55"/>
+      <c r="E28" s="54"/>
       <c r="M28" s="14"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
@@ -2900,13 +2927,13 @@
       <c r="S29" s="20"/>
     </row>
     <row r="31" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
@@ -2936,7 +2963,7 @@
       <c r="Q32" s="12"/>
     </row>
     <row r="33" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="61" t="s">
+      <c r="A33" s="66" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -2948,17 +2975,17 @@
       <c r="D33" s="36">
         <v>0.11</v>
       </c>
-      <c r="E33" s="55" t="s">
+      <c r="E33" s="54" t="s">
         <v>16</v>
       </c>
       <c r="M33" s="14"/>
       <c r="N33" s="12"/>
       <c r="O33" s="29"/>
       <c r="P33" s="37"/>
-      <c r="Q33" s="58"/>
+      <c r="Q33" s="63"/>
     </row>
     <row r="34" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="4" t="s">
         <v>56</v>
       </c>
@@ -2968,12 +2995,12 @@
       <c r="D34" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E34" s="56"/>
+      <c r="E34" s="55"/>
       <c r="M34" s="14"/>
       <c r="N34" s="12"/>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
-      <c r="Q34" s="58"/>
+      <c r="Q34" s="63"/>
     </row>
     <row r="36" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
@@ -2997,48 +3024,48 @@
       <c r="E38" s="31"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="57" t="s">
+      <c r="A39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
     </row>
     <row r="43" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="G43" s="52" t="s">
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="G43" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
     </row>
     <row r="44" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
@@ -3073,7 +3100,7 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="53" t="s">
+      <c r="A45" s="56" t="s">
         <v>80</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -3085,10 +3112,10 @@
       <c r="D45" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E45" s="55" t="s">
+      <c r="E45" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="G45" s="53" t="s">
+      <c r="G45" s="56" t="s">
         <v>102</v>
       </c>
       <c r="H45" s="4" t="s">
@@ -3100,10 +3127,10 @@
       <c r="J45" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="K45" s="55"/>
+      <c r="K45" s="54"/>
     </row>
     <row r="46" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="54"/>
+      <c r="A46" s="57"/>
       <c r="B46" s="4" t="s">
         <v>81</v>
       </c>
@@ -3113,25 +3140,22 @@
       <c r="D46" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E46" s="56"/>
-      <c r="G46" s="54"/>
+      <c r="E46" s="55"/>
+      <c r="G46" s="57"/>
       <c r="H46" s="4"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="56"/>
+      <c r="K46" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="G7:G14"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="K7:K14"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="A39:K40"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="E45:E46"/>
     <mergeCell ref="Q33:Q34"/>
     <mergeCell ref="N26:P26"/>
     <mergeCell ref="A18:Q19"/>
@@ -3148,13 +3172,16 @@
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="E33:E34"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="A39:K40"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="G7:G14"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="K7:K14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3177,7 +3204,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="77">
+      <c r="A1" s="74">
         <v>20250501</v>
       </c>
       <c r="B1" s="33" t="s">
@@ -3185,13 +3212,13 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="66" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
+      <c r="A2" s="74"/>
       <c r="B2" s="33" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
+      <c r="A3" s="74"/>
       <c r="B3" s="34" t="s">
         <v>46</v>
       </c>
@@ -3217,7 +3244,7 @@
       <c r="B8" s="20"/>
     </row>
     <row r="9" spans="1:2" ht="66" x14ac:dyDescent="0.25">
-      <c r="A9" s="77">
+      <c r="A9" s="74">
         <v>20250502</v>
       </c>
       <c r="B9" s="32" t="s">
@@ -3225,19 +3252,19 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="66" x14ac:dyDescent="0.25">
-      <c r="A10" s="77"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="32" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="66" x14ac:dyDescent="0.25">
-      <c r="A11" s="77"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="32" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="77">
+      <c r="A14" s="74">
         <v>20250503</v>
       </c>
       <c r="B14" s="32" t="s">
@@ -3245,19 +3272,19 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="32" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="32" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="77">
+      <c r="A19" s="74">
         <v>20250504</v>
       </c>
       <c r="B19" s="32" t="s">
@@ -3265,7 +3292,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="77"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="32" t="s">
         <v>53</v>
       </c>
@@ -3274,7 +3301,7 @@
       <c r="A21" s="35"/>
     </row>
     <row r="28" spans="1:2" ht="113.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="77">
+      <c r="A28" s="74">
         <v>20250505</v>
       </c>
       <c r="B28" s="32" t="s">
@@ -3282,13 +3309,13 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="77"/>
+      <c r="A29" s="74"/>
       <c r="B29" s="32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="113.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="77"/>
+      <c r="A30" s="74"/>
       <c r="B30" s="32" t="s">
         <v>59</v>
       </c>
@@ -3308,7 +3335,7 @@
       <c r="A35" s="35"/>
     </row>
     <row r="36" spans="1:2" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="74">
+      <c r="A36" s="75">
         <v>20250513</v>
       </c>
       <c r="B36" s="32" t="s">
@@ -3316,19 +3343,19 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="99" x14ac:dyDescent="0.25">
-      <c r="A37" s="75"/>
+      <c r="A37" s="76"/>
       <c r="B37" s="32" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="76"/>
+      <c r="A38" s="77"/>
       <c r="B38" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="66" x14ac:dyDescent="0.25">
-      <c r="A41" s="77">
+      <c r="A41" s="74">
         <v>20250522</v>
       </c>
       <c r="B41" s="32" t="s">
@@ -3336,7 +3363,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="148.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="77"/>
+      <c r="A42" s="74"/>
       <c r="B42" s="32" t="s">
         <v>86</v>
       </c>
@@ -3381,11 +3408,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
       <c r="D1" s="43" t="s">
         <v>75</v>
       </c>
@@ -3452,13 +3479,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="81"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="83"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
@@ -3478,7 +3505,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="78" t="s">
         <v>97</v>
       </c>
       <c r="B11" s="48" t="s">
@@ -3496,7 +3523,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="48" t="s">
         <v>99</v>
       </c>
@@ -3512,7 +3539,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="78" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="48" t="s">
@@ -3530,7 +3557,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="83"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="48" t="s">
         <v>99</v>
       </c>
@@ -3546,7 +3573,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="78" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="48" t="s">
@@ -3564,7 +3591,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="48" t="s">
         <v>99</v>
       </c>
@@ -3580,7 +3607,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="78" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="48" t="s">
@@ -3598,7 +3625,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
+      <c r="A18" s="79"/>
       <c r="B18" s="48" t="s">
         <v>99</v>
       </c>

--- a/Fittech/每日使用.xlsx
+++ b/Fittech/每日使用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gary_kuo\Documents\GitHub\ImpDocuments\Fittech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB946854-B505-410A-AD36-E02501BC9451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B490B77-ECE4-44FA-B8AA-5F6F17BC5058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FE8E316F-3F34-44BD-B884-7A716B71C90E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="115">
   <si>
     <t>LBT03</t>
   </si>
@@ -1093,7 +1093,101 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LBT05/06 軟體更新 調整出料位子</t>
+    <t>PBBT表單紀錄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追蹤4-2分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>關於新版吸嘴進度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.新的吸嘴上週已發料預計最快下周五(6/6號)到貨
+2.料到隔天進行更換如遇假日順延到下個工作天
+3.工時預計兩人四小時(含調整點位電控改線)
+4.共5台需要施作 一天兩台 預計2.5天完工</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>關於溫控韌體更新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.韌體尚未進行機台測試 
+2.已回報可以先用LBT05/06先進行更新測試待研發確認</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>關於LBT02溫度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.機台可以調控上下限區間但無法單獨設定
+2.目前只能0.5 =&gt; 0.4 機台溫度目前在下限23.6</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LBT/06 軟體更新 調整出料位子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1395,7 +1489,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1552,22 +1646,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1580,42 +1710,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1647,9 +1741,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2094,10 +2185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7832F80-ECE0-4F7F-9766-693EEFCDF792}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2257,27 +2348,45 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
-    </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="99" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>111</v>
+      </c>
       <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
+        <v>112</v>
+      </c>
       <c r="B40" s="2"/>
+    </row>
+    <row r="42" spans="1:2" ht="66" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2389,7 +2498,7 @@
   <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2415,51 +2524,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="G5" s="53" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="G5" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
     </row>
     <row r="6" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -2494,7 +2603,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="53" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -2506,10 +2615,10 @@
       <c r="D7" s="7">
         <v>0.12509999999999999</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="53" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="18" t="s">
@@ -2521,13 +2630,13 @@
       <c r="J7" s="7">
         <v>0.18740000000000001</v>
       </c>
-      <c r="K7" s="62" t="s">
+      <c r="K7" s="65" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
@@ -2537,8 +2646,8 @@
       <c r="D8" s="5">
         <v>0</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="G8" s="58"/>
+      <c r="E8" s="56"/>
+      <c r="G8" s="70"/>
       <c r="H8" s="4" t="s">
         <v>24</v>
       </c>
@@ -2548,7 +2657,7 @@
       <c r="J8" s="5">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="K8" s="62"/>
+      <c r="K8" s="65"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
@@ -2557,11 +2666,11 @@
       <c r="U8" s="11"/>
     </row>
     <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="58"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="62"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="65"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
@@ -2570,7 +2679,7 @@
       <c r="U9" s="12"/>
     </row>
     <row r="10" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="G10" s="58"/>
+      <c r="G10" s="70"/>
       <c r="H10" s="6" t="s">
         <v>2</v>
       </c>
@@ -2580,7 +2689,7 @@
       <c r="J10" s="7">
         <v>0.27289999999999998</v>
       </c>
-      <c r="K10" s="62"/>
+      <c r="K10" s="65"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
@@ -2589,7 +2698,7 @@
       <c r="U10" s="51"/>
     </row>
     <row r="11" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="G11" s="58"/>
+      <c r="G11" s="70"/>
       <c r="H11" s="4" t="s">
         <v>2</v>
       </c>
@@ -2599,7 +2708,7 @@
       <c r="J11" s="5">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="K11" s="62"/>
+      <c r="K11" s="65"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
@@ -2608,14 +2717,14 @@
       <c r="U11" s="51"/>
     </row>
     <row r="12" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G12" s="58"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="65"/>
     </row>
     <row r="13" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="G13" s="58"/>
+      <c r="G13" s="70"/>
       <c r="H13" s="18" t="s">
         <v>7</v>
       </c>
@@ -2625,10 +2734,10 @@
       <c r="J13" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K13" s="62"/>
+      <c r="K13" s="65"/>
     </row>
     <row r="14" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G14" s="57"/>
+      <c r="G14" s="54"/>
       <c r="H14" s="4" t="s">
         <v>7</v>
       </c>
@@ -2638,75 +2747,75 @@
       <c r="J14" s="5">
         <v>1E-3</v>
       </c>
-      <c r="K14" s="62"/>
+      <c r="K14" s="65"/>
     </row>
     <row r="18" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
       <c r="R18" s="26"/>
       <c r="S18" s="26"/>
     </row>
     <row r="19" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
       <c r="R19" s="26"/>
       <c r="S19" s="26"/>
     </row>
     <row r="22" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="71" t="s">
+      <c r="G22" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="73"/>
-      <c r="M22" s="70" t="s">
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="69"/>
+      <c r="M22" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
     </row>
     <row r="23" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -2759,7 +2868,7 @@
       <c r="S23" s="20"/>
     </row>
     <row r="24" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="61" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -2771,11 +2880,11 @@
       <c r="D24" s="7">
         <v>0.10630000000000001</v>
       </c>
-      <c r="E24" s="62" t="s">
+      <c r="E24" s="65" t="s">
         <v>32</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="56" t="s">
+      <c r="G24" s="53" t="s">
         <v>10</v>
       </c>
       <c r="H24" s="6" t="s">
@@ -2787,10 +2896,10 @@
       <c r="J24" s="7">
         <v>0.30199999999999999</v>
       </c>
-      <c r="K24" s="54" t="s">
+      <c r="K24" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="M24" s="66" t="s">
+      <c r="M24" s="61" t="s">
         <v>23</v>
       </c>
       <c r="N24" s="6" t="s">
@@ -2802,14 +2911,14 @@
       <c r="P24" s="36">
         <v>0.12</v>
       </c>
-      <c r="Q24" s="54" t="s">
+      <c r="Q24" s="55" t="s">
         <v>16</v>
       </c>
       <c r="R24" s="22"/>
       <c r="S24" s="20"/>
     </row>
     <row r="25" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="66"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="4" t="s">
         <v>9</v>
       </c>
@@ -2819,9 +2928,9 @@
       <c r="D25" s="5">
         <v>2.29E-2</v>
       </c>
-      <c r="E25" s="62"/>
+      <c r="E25" s="65"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="57"/>
+      <c r="G25" s="54"/>
       <c r="H25" s="4" t="s">
         <v>11</v>
       </c>
@@ -2831,8 +2940,8 @@
       <c r="J25" s="5">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K25" s="55"/>
-      <c r="M25" s="66"/>
+      <c r="K25" s="56"/>
+      <c r="M25" s="61"/>
       <c r="N25" s="4" t="s">
         <v>31</v>
       </c>
@@ -2842,16 +2951,16 @@
       <c r="P25" s="5">
         <v>2E-3</v>
       </c>
-      <c r="Q25" s="55"/>
+      <c r="Q25" s="56"/>
       <c r="R25" s="22"/>
       <c r="S25" s="20"/>
     </row>
     <row r="26" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="66"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="62"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="65"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -2859,15 +2968,15 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="M26" s="14"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="64"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
       <c r="Q26" s="31"/>
       <c r="R26" s="22"/>
       <c r="S26" s="20"/>
     </row>
     <row r="27" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="66"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="6" t="s">
         <v>15</v>
       </c>
@@ -2877,7 +2986,7 @@
       <c r="D27" s="8">
         <v>0.17</v>
       </c>
-      <c r="E27" s="62"/>
+      <c r="E27" s="65"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -2893,7 +3002,7 @@
       <c r="S27" s="20"/>
     </row>
     <row r="28" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="66"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="9" t="s">
         <v>12</v>
       </c>
@@ -2903,7 +3012,7 @@
       <c r="D28" s="16">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="E28" s="54"/>
+      <c r="E28" s="55"/>
       <c r="M28" s="14"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
@@ -2927,13 +3036,13 @@
       <c r="S29" s="20"/>
     </row>
     <row r="31" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="70" t="s">
+      <c r="A31" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
@@ -2963,7 +3072,7 @@
       <c r="Q32" s="12"/>
     </row>
     <row r="33" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="66" t="s">
+      <c r="A33" s="61" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -2975,17 +3084,17 @@
       <c r="D33" s="36">
         <v>0.11</v>
       </c>
-      <c r="E33" s="54" t="s">
+      <c r="E33" s="55" t="s">
         <v>16</v>
       </c>
       <c r="M33" s="14"/>
       <c r="N33" s="12"/>
       <c r="O33" s="29"/>
       <c r="P33" s="37"/>
-      <c r="Q33" s="63"/>
+      <c r="Q33" s="58"/>
     </row>
     <row r="34" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="66"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="4" t="s">
         <v>56</v>
       </c>
@@ -2995,12 +3104,12 @@
       <c r="D34" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E34" s="55"/>
+      <c r="E34" s="56"/>
       <c r="M34" s="14"/>
       <c r="N34" s="12"/>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
-      <c r="Q34" s="63"/>
+      <c r="Q34" s="58"/>
     </row>
     <row r="36" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
@@ -3024,48 +3133,48 @@
       <c r="E38" s="31"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="52"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
     </row>
     <row r="43" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="53" t="s">
+      <c r="A43" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="G43" s="53" t="s">
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="G43" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
     </row>
     <row r="44" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
@@ -3100,7 +3209,7 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="53" t="s">
         <v>80</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -3112,10 +3221,10 @@
       <c r="D45" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E45" s="54" t="s">
+      <c r="E45" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="G45" s="56" t="s">
+      <c r="G45" s="53" t="s">
         <v>102</v>
       </c>
       <c r="H45" s="4" t="s">
@@ -3127,10 +3236,10 @@
       <c r="J45" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="K45" s="54"/>
+      <c r="K45" s="55"/>
     </row>
     <row r="46" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="4" t="s">
         <v>81</v>
       </c>
@@ -3140,22 +3249,25 @@
       <c r="D46" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E46" s="55"/>
-      <c r="G46" s="57"/>
+      <c r="E46" s="56"/>
+      <c r="G46" s="54"/>
       <c r="H46" s="4"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="55"/>
+      <c r="K46" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="A39:K40"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="G7:G14"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="K7:K14"/>
     <mergeCell ref="Q33:Q34"/>
     <mergeCell ref="N26:P26"/>
     <mergeCell ref="A18:Q19"/>
@@ -3172,16 +3284,13 @@
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="G7:G14"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="K7:K14"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="A39:K40"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="E45:E46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3393,7 +3502,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3562,7 +3671,7 @@
         <v>99</v>
       </c>
       <c r="C14" s="48">
-        <v>24.7</v>
+        <v>23.7</v>
       </c>
       <c r="D14" s="48">
         <v>24.2</v>
@@ -3659,7 +3768,7 @@
   <dimension ref="A2:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/Fittech/每日使用.xlsx
+++ b/Fittech/每日使用.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gary_kuo\Documents\GitHub\ImpDocuments\Fittech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B490B77-ECE4-44FA-B8AA-5F6F17BC5058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557D812F-DB24-4135-B6FE-E3895C34F9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FE8E316F-3F34-44BD-B884-7A716B71C90E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{FE8E316F-3F34-44BD-B884-7A716B71C90E}"/>
   </bookViews>
   <sheets>
     <sheet name="每日事項" sheetId="2" r:id="rId1"/>
-    <sheet name="每日現況" sheetId="4" r:id="rId2"/>
-    <sheet name="重工" sheetId="1" r:id="rId3"/>
-    <sheet name="每日異常總整理" sheetId="5" r:id="rId4"/>
-    <sheet name="針數紀錄" sheetId="7" r:id="rId5"/>
-    <sheet name="常用線上表單" sheetId="3" r:id="rId6"/>
+    <sheet name="重工" sheetId="1" r:id="rId2"/>
+    <sheet name="每日異常總整理" sheetId="5" r:id="rId3"/>
+    <sheet name="針數紀錄" sheetId="7" r:id="rId4"/>
+    <sheet name="常用線上表單" sheetId="3" r:id="rId5"/>
+    <sheet name="作業指導書更新" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="123">
   <si>
     <t>LBT03</t>
   </si>
@@ -174,35 +174,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>幾站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>機台編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>現況</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>預計時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LBT01三色燈位置要架高 看不到燈號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>總站數</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -967,6 +943,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>LBT03 QT368857-B2607801  
+OCR : 1E85,1E84,1E83,1E82 
+外觀四顆良品 但沒有點測針痕 目前沒反綠 待工程指示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LBT03
+QT368907-B2609167 跳出異常 Exception TrayandPP，MES無作業檔，
+待整批結束HOLD貨，等工程處理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LBT02 軟體更新 調整出料位子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PBBT表單紀錄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追蹤4-2分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>關於LBT02溫度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.機台可以調控上下限區間但無法單獨設定
+2.目前只能0.5 =&gt; 0.4 機台溫度目前在下限23.6</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LBT/06 軟體更新 調整出料位子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1060,6 +1092,7 @@
 5/23 調高真空值 -35 持續觀察中
 5/26 維持真空值 -35 持續觀察中
 5/27 維持真空直 -35 持續觀察中
+5/28 維持真空直 -35 持續觀察中
 </t>
     </r>
     <r>
@@ -1074,33 +1107,6 @@
       <t xml:space="preserve">
 </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LBT03 QT368857-B2607801  
-OCR : 1E85,1E84,1E83,1E82 
-外觀四顆良品 但沒有點測針痕 目前沒反綠 待工程指示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LBT03
-QT368907-B2609167 跳出異常 Exception TrayandPP，MES無作業檔，
-待整批結束HOLD貨，等工程處理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LBT02 軟體更新 調整出料位子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PBBT表單紀錄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>追蹤4-2分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1126,9 +1132,13 @@
 1.新的吸嘴上週已發料預計最快下周五(6/6號)到貨
 2.料到隔天進行更換如遇假日順延到下個工作天
 3.工時預計兩人四小時(含調整點位電控改線)
-4.共5台需要施作 一天兩台 預計2.5天完工</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+4.共5台需要施作 一天兩台 預計2.5天完工
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1.1-2.4-1.4-2做1310nm的RR bar 測試，再麻煩你們安排一下時間</t>
   </si>
   <si>
     <r>
@@ -1154,8 +1164,58 @@
       </rPr>
       <t xml:space="preserve">
 1.韌體尚未進行機台測試 
-2.已回報可以先用LBT05/06先進行更新測試待研發確認</t>
-    </r>
+2.已回報可以先用LBT05/06先進行更新測試待研發確認
+3.等生產跟我聯絡(5/29)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良率低的新上傳後  寄信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20250602(L)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LBT教育訓練</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QT368294_B2613487：2D3E,2D3F,2D40,2D41這四顆晶粒外觀正常卻無點測痕，待復判。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LBT 01：QT367960_B2613157 下機時，發現藍膜上BAR條歪斜，按完Clear bin 後顯示「exception tray&amp;pp」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QT370931-B2613545 上機前發現斷晶 寄信處理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QT368294-B2613493 機上斷晶  寄信處理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>確認300萬 RRBar拍照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左右測試站載台表面清潔，以棉棒沾酒精單方向擦拭，去除粉塵或汙漬。
+保養頻率: 每一盒作業前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作業指導書要更新事項</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.	定期保養項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程權限 如何避免出錯 直接過站</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1169,7 +1229,110 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t>關於LBT02溫度</t>
+      <t xml:space="preserve">MES
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.MES新增單盒過站要顯示作業機台號碼</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2.MES新增機台版本管控表
+3.MES新增管控載台(MES比對機台載台on)
+4.機限表(波段)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+機台
+1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>同批不會在不同台作業(MES紀錄該批號</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日檢沒做不能作業
+3.機限表(波段)
+4.管控載台(MES比對機台載台on)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+單盒作業完成 =&gt; 單盒過站</t>
     </r>
     <r>
       <rPr>
@@ -1181,13 +1344,83 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-1.機台可以調控上下限區間但無法單獨設定
-2.目前只能0.5 =&gt; 0.4 機台溫度目前在下限23.6</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LBT/06 軟體更新 調整出料位子</t>
+OCR重複
+已Module OCR四碼檢查 不可短少位數
+數量:大於一顆:NG 少一顆:OCR列出並寫原因
+F025單盒 &gt; 10% =&gt;重工
+F065單盒 &gt; 20% =&gt;重做日檢
+良率低於40%不可過站(工程才可以)
+單批號不會混道不同批的鐵環號(鐵環號跟批號盒號綁一起，鐵環號唯一)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">六盒作業完成 =&gt; 整批過站
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>已Module OCR四碼檢查 不可短少位數</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+同批同一台作業
+F025整批 &gt;10%??
+F065整批 &gt; 4% 要Hold 工程過站</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+良率低於40%不可過站(工程才可以)
+同批號不會有不同台作業
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20250604(R)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1198,7 +1431,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1272,22 +1505,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
@@ -1371,7 +1588,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1477,6 +1694,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1489,7 +1715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1571,12 +1797,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1589,13 +1809,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1604,22 +1824,19 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1643,25 +1860,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1685,9 +1920,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1700,46 +1932,46 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2185,207 +2417,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7832F80-ECE0-4F7F-9766-693EEFCDF792}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="74.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="103" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="39">
+      <c r="B1" s="37">
         <v>20250513</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>43</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="313.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>105</v>
+    <row r="8" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="148.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
-        <v>95</v>
+    <row r="10" spans="1:5" ht="145.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A10" s="44" t="s">
+        <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
-        <v>89</v>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="41" t="s">
+        <v>83</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
-        <v>88</v>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="41" t="s">
+        <v>82</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
-        <v>90</v>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="41" t="s">
+        <v>84</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
-        <v>91</v>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="41" t="s">
+        <v>85</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
-        <v>91</v>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="41" t="s">
+        <v>85</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="280.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
-        <v>94</v>
+    <row r="22" spans="1:2" ht="275.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A22" s="44" t="s">
+        <v>88</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
-        <v>104</v>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="41" t="s">
+        <v>98</v>
       </c>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" ht="66" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
-        <v>106</v>
+    <row r="26" spans="1:2" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="44" t="s">
+        <v>99</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
-        <v>107</v>
+    <row r="28" spans="1:2" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="48" t="s">
+        <v>100</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
-        <v>108</v>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="41" t="s">
+        <v>101</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
-        <v>114</v>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="41" t="s">
+        <v>105</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
-        <v>109</v>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="41" t="s">
+        <v>102</v>
       </c>
       <c r="B34" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="44" t="s">
-        <v>110</v>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="99" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
+    <row r="38" spans="1:2" ht="81" x14ac:dyDescent="0.3">
+      <c r="A38" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:2" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="2"/>
-    </row>
-    <row r="42" spans="1:2" ht="66" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
-        <v>113</v>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="23" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2399,178 +2688,83 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A04C88-AE17-4185-92FD-A4219F45E9D2}">
-  <dimension ref="A1:K10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.5" customWidth="1"/>
-    <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" customWidth="1"/>
-    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="2">
-        <f>SUM(B2:B5)</f>
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9B6B0A-16BD-47ED-8088-A27FC84CC971}">
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45:G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" customWidth="1"/>
-    <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+    <row r="5" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="G5" s="52" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="G5" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-    </row>
-    <row r="6" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+    </row>
+    <row r="6" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -2602,8 +2796,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+    <row r="7" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="54" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -2615,10 +2809,10 @@
       <c r="D7" s="7">
         <v>0.12509999999999999</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="54" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="18" t="s">
@@ -2630,13 +2824,13 @@
       <c r="J7" s="7">
         <v>0.18740000000000001</v>
       </c>
-      <c r="K7" s="65" t="s">
+      <c r="K7" s="60" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
+    <row r="8" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="55"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
@@ -2646,8 +2840,8 @@
       <c r="D8" s="5">
         <v>0</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="G8" s="70"/>
+      <c r="E8" s="53"/>
+      <c r="G8" s="56"/>
       <c r="H8" s="4" t="s">
         <v>24</v>
       </c>
@@ -2657,7 +2851,7 @@
       <c r="J8" s="5">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="K8" s="65"/>
+      <c r="K8" s="60"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
@@ -2665,12 +2859,12 @@
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
     </row>
-    <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="70"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="65"/>
+    <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="56"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="60"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
@@ -2678,8 +2872,8 @@
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
     </row>
-    <row r="10" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="G10" s="70"/>
+    <row r="10" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="G10" s="56"/>
       <c r="H10" s="6" t="s">
         <v>2</v>
       </c>
@@ -2689,16 +2883,16 @@
       <c r="J10" s="7">
         <v>0.27289999999999998</v>
       </c>
-      <c r="K10" s="65"/>
+      <c r="K10" s="60"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
-      <c r="U10" s="51"/>
-    </row>
-    <row r="11" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="G11" s="70"/>
+      <c r="U10" s="49"/>
+    </row>
+    <row r="11" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="G11" s="56"/>
       <c r="H11" s="4" t="s">
         <v>2</v>
       </c>
@@ -2708,23 +2902,23 @@
       <c r="J11" s="5">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="K11" s="65"/>
+      <c r="K11" s="60"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="51"/>
-    </row>
-    <row r="12" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G12" s="70"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="65"/>
-    </row>
-    <row r="13" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="G13" s="70"/>
+      <c r="U11" s="49"/>
+    </row>
+    <row r="12" spans="1:21" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="56"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="60"/>
+    </row>
+    <row r="13" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="G13" s="56"/>
       <c r="H13" s="18" t="s">
         <v>7</v>
       </c>
@@ -2734,10 +2928,10 @@
       <c r="J13" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K13" s="65"/>
-    </row>
-    <row r="14" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G14" s="54"/>
+      <c r="K13" s="60"/>
+    </row>
+    <row r="14" spans="1:21" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="55"/>
       <c r="H14" s="4" t="s">
         <v>7</v>
       </c>
@@ -2747,77 +2941,77 @@
       <c r="J14" s="5">
         <v>1E-3</v>
       </c>
-      <c r="K14" s="65"/>
-    </row>
-    <row r="18" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="60" t="s">
+      <c r="K14" s="60"/>
+    </row>
+    <row r="18" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="60"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
       <c r="R18" s="26"/>
       <c r="S18" s="26"/>
     </row>
-    <row r="19" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
+    <row r="19" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
       <c r="R19" s="26"/>
       <c r="S19" s="26"/>
     </row>
-    <row r="22" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="52" t="s">
+    <row r="22" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="67" t="s">
+      <c r="G22" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="69"/>
-      <c r="M22" s="66" t="s">
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="71"/>
+      <c r="M22" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-    </row>
-    <row r="23" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
+    </row>
+    <row r="23" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
@@ -2867,8 +3061,8 @@
       <c r="R23" s="21"/>
       <c r="S23" s="20"/>
     </row>
-    <row r="24" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="61" t="s">
+    <row r="24" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="64" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -2880,11 +3074,11 @@
       <c r="D24" s="7">
         <v>0.10630000000000001</v>
       </c>
-      <c r="E24" s="65" t="s">
+      <c r="E24" s="60" t="s">
         <v>32</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="53" t="s">
+      <c r="G24" s="54" t="s">
         <v>10</v>
       </c>
       <c r="H24" s="6" t="s">
@@ -2896,10 +3090,10 @@
       <c r="J24" s="7">
         <v>0.30199999999999999</v>
       </c>
-      <c r="K24" s="55" t="s">
+      <c r="K24" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="M24" s="61" t="s">
+      <c r="M24" s="64" t="s">
         <v>23</v>
       </c>
       <c r="N24" s="6" t="s">
@@ -2908,17 +3102,17 @@
       <c r="O24" s="8">
         <v>0.53</v>
       </c>
-      <c r="P24" s="36">
+      <c r="P24" s="34">
         <v>0.12</v>
       </c>
-      <c r="Q24" s="55" t="s">
+      <c r="Q24" s="52" t="s">
         <v>16</v>
       </c>
       <c r="R24" s="22"/>
       <c r="S24" s="20"/>
     </row>
-    <row r="25" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+    <row r="25" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="64"/>
       <c r="B25" s="4" t="s">
         <v>9</v>
       </c>
@@ -2928,9 +3122,9 @@
       <c r="D25" s="5">
         <v>2.29E-2</v>
       </c>
-      <c r="E25" s="65"/>
+      <c r="E25" s="60"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="54"/>
+      <c r="G25" s="55"/>
       <c r="H25" s="4" t="s">
         <v>11</v>
       </c>
@@ -2940,8 +3134,8 @@
       <c r="J25" s="5">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K25" s="56"/>
-      <c r="M25" s="61"/>
+      <c r="K25" s="53"/>
+      <c r="M25" s="64"/>
       <c r="N25" s="4" t="s">
         <v>31</v>
       </c>
@@ -2951,16 +3145,16 @@
       <c r="P25" s="5">
         <v>2E-3</v>
       </c>
-      <c r="Q25" s="56"/>
+      <c r="Q25" s="53"/>
       <c r="R25" s="22"/>
       <c r="S25" s="20"/>
     </row>
-    <row r="26" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="65"/>
+    <row r="26" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="64"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="60"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -2968,15 +3162,15 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="M26" s="14"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="31"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="29"/>
       <c r="R26" s="22"/>
       <c r="S26" s="20"/>
     </row>
-    <row r="27" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
+    <row r="27" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="64"/>
       <c r="B27" s="6" t="s">
         <v>15</v>
       </c>
@@ -2986,7 +3180,7 @@
       <c r="D27" s="8">
         <v>0.17</v>
       </c>
-      <c r="E27" s="65"/>
+      <c r="E27" s="60"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -2995,14 +3189,14 @@
       <c r="K27" s="2"/>
       <c r="M27" s="14"/>
       <c r="N27" s="12"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="31"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="29"/>
       <c r="R27" s="22"/>
       <c r="S27" s="20"/>
     </row>
-    <row r="28" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
+    <row r="28" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="64"/>
       <c r="B28" s="9" t="s">
         <v>12</v>
       </c>
@@ -3012,16 +3206,16 @@
       <c r="D28" s="16">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="E28" s="55"/>
+      <c r="E28" s="52"/>
       <c r="M28" s="14"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
-      <c r="Q28" s="31"/>
+      <c r="Q28" s="29"/>
       <c r="R28" s="22"/>
       <c r="S28" s="23"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -3035,21 +3229,21 @@
       <c r="R29" s="22"/>
       <c r="S29" s="20"/>
     </row>
-    <row r="31" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="66" t="s">
+    <row r="31" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
     </row>
-    <row r="32" spans="1:19" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>3</v>
       </c>
@@ -3071,32 +3265,32 @@
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
     </row>
-    <row r="33" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="61" t="s">
-        <v>55</v>
+    <row r="33" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="64" t="s">
+        <v>49</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C33" s="8">
         <v>0.46229999999999999</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="34">
         <v>0.11</v>
       </c>
-      <c r="E33" s="55" t="s">
+      <c r="E33" s="52" t="s">
         <v>16</v>
       </c>
       <c r="M33" s="14"/>
       <c r="N33" s="12"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="58"/>
-    </row>
-    <row r="34" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="61"/>
+    </row>
+    <row r="34" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="64"/>
       <c r="B34" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C34" s="5">
         <v>0.52390000000000003</v>
@@ -3104,79 +3298,79 @@
       <c r="D34" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E34" s="56"/>
+      <c r="E34" s="53"/>
       <c r="M34" s="14"/>
       <c r="N34" s="12"/>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
-      <c r="Q34" s="58"/>
-    </row>
-    <row r="36" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="Q34" s="61"/>
+    </row>
+    <row r="36" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
     </row>
-    <row r="37" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
     </row>
-    <row r="38" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
       <c r="B38" s="12"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="31"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="57" t="s">
+      <c r="C38" s="27"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="29"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-    </row>
-    <row r="43" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="52" t="s">
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+    </row>
+    <row r="43" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="G43" s="52" t="s">
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="G43" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
-    </row>
-    <row r="44" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="51"/>
+    </row>
+    <row r="44" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3208,66 +3402,63 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="53" t="s">
-        <v>80</v>
+    <row r="45" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="54" t="s">
+        <v>74</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C45" s="7">
         <v>0.44840000000000002</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="G45" s="53" t="s">
-        <v>102</v>
+        <v>76</v>
+      </c>
+      <c r="E45" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="G45" s="54" t="s">
+        <v>96</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I45" s="5">
         <v>0.38109999999999999</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K45" s="55"/>
-    </row>
-    <row r="46" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="54"/>
+        <v>76</v>
+      </c>
+      <c r="K45" s="52"/>
+    </row>
+    <row r="46" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="55"/>
       <c r="B46" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C46" s="5">
         <v>0.44359999999999999</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E46" s="56"/>
-      <c r="G46" s="54"/>
+        <v>76</v>
+      </c>
+      <c r="E46" s="53"/>
+      <c r="G46" s="55"/>
       <c r="H46" s="4"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="56"/>
+      <c r="K46" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="G7:G14"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="K7:K14"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="A39:K40"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="E45:E46"/>
     <mergeCell ref="Q33:Q34"/>
     <mergeCell ref="N26:P26"/>
     <mergeCell ref="A18:Q19"/>
@@ -3284,13 +3475,16 @@
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="E33:E34"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="A39:K40"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="G7:G14"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="K7:K14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3298,187 +3492,187 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8AAB6F-E09A-4654-B9EA-C0852B5D2613}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="88" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="74">
+    <row r="1" spans="1:2" ht="81" x14ac:dyDescent="0.3">
+      <c r="A1" s="72">
         <v>20250501</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="66" x14ac:dyDescent="0.25">
-      <c r="A2" s="74"/>
-      <c r="B2" s="33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="74"/>
-      <c r="B3" s="34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="72"/>
+      <c r="B2" s="31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="81" x14ac:dyDescent="0.3">
+      <c r="A3" s="72"/>
+      <c r="B3" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:2" ht="66" x14ac:dyDescent="0.25">
-      <c r="A9" s="74">
+    <row r="9" spans="1:2" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="72">
         <v>20250502</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="72"/>
+      <c r="B10" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="72"/>
+      <c r="B11" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="72">
+        <v>20250503</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="81" x14ac:dyDescent="0.3">
+      <c r="A15" s="72"/>
+      <c r="B15" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="81" x14ac:dyDescent="0.3">
+      <c r="A16" s="72"/>
+      <c r="B16" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="81" x14ac:dyDescent="0.3">
+      <c r="A19" s="72">
+        <v>20250504</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="72"/>
+      <c r="B20" s="30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="66" x14ac:dyDescent="0.25">
-      <c r="A10" s="74"/>
-      <c r="B10" s="32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="66" x14ac:dyDescent="0.25">
-      <c r="A11" s="74"/>
-      <c r="B11" s="32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="74">
-        <v>20250503</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="74"/>
-      <c r="B15" s="32" t="s">
+    <row r="21" spans="1:2" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="33"/>
+    </row>
+    <row r="28" spans="1:2" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="72">
+        <v>20250505</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="72"/>
+      <c r="B29" s="30" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
-      <c r="B16" s="32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="74">
-        <v>20250504</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="74"/>
-      <c r="B20" s="32" t="s">
+    <row r="30" spans="1:2" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="72"/>
+      <c r="B30" s="30" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-    </row>
-    <row r="28" spans="1:2" ht="113.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="74">
-        <v>20250505</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="74"/>
-      <c r="B29" s="32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="113.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="74"/>
-      <c r="B30" s="32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="66" x14ac:dyDescent="0.25">
-      <c r="A33" s="38">
+    <row r="33" spans="1:2" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="36">
         <v>20250506</v>
       </c>
-      <c r="B33" s="46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-    </row>
-    <row r="36" spans="1:2" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="75">
+      <c r="B33" s="43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="33"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="33"/>
+    </row>
+    <row r="36" spans="1:2" ht="81" x14ac:dyDescent="0.3">
+      <c r="A36" s="73">
         <v>20250513</v>
       </c>
-      <c r="B36" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="99" x14ac:dyDescent="0.25">
-      <c r="A37" s="76"/>
-      <c r="B37" s="32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="77"/>
-      <c r="B38" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="66" x14ac:dyDescent="0.25">
-      <c r="A41" s="74">
+      <c r="B36" s="30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="74"/>
+      <c r="B37" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="75"/>
+      <c r="B38" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="72">
         <v>20250522</v>
       </c>
-      <c r="B41" s="32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="148.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="74"/>
-      <c r="B42" s="32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
+      <c r="B41" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="162" x14ac:dyDescent="0.3">
+      <c r="A42" s="72"/>
+      <c r="B42" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3497,273 +3691,283 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BF5146-0FF3-4A5B-AF3E-B4BADDBE110F}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="41" t="s">
+    <row r="1" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+    </row>
+    <row r="2" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C5" s="38" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="D5" s="42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="83"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="49" t="s">
+      <c r="F6" s="84" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="81"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="49" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="48">
+      <c r="C11" s="45">
         <v>24.2</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="45">
         <v>24.3</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="45">
         <f>ABS(C11-D11)</f>
         <v>0.10000000000000142</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="79"/>
-      <c r="B12" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="48">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="77"/>
+      <c r="B12" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="45">
         <v>24.1</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="45">
         <v>24.1</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="45">
         <f t="shared" ref="E12:E18" si="0">ABS(C12-D12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="78" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="48">
+      <c r="B13" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="45">
         <v>23.9</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="45">
         <v>24.2</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="45">
         <f t="shared" si="0"/>
         <v>0.30000000000000071</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="79"/>
-      <c r="B14" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="48">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="77"/>
+      <c r="B14" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="45">
         <v>23.7</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="45">
         <v>24.2</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="45">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="78" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="48">
+      <c r="B15" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="45">
         <v>24.2</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="45">
         <v>24.3</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="45">
         <f t="shared" si="0"/>
         <v>0.10000000000000142</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="79"/>
-      <c r="B16" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="48">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="77"/>
+      <c r="B16" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="45">
         <v>24.1</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="45">
         <v>24.4</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="45">
         <f t="shared" si="0"/>
         <v>0.29999999999999716</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="78" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="48">
+      <c r="B17" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="45">
         <v>23.9</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="45">
         <v>24.2</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="45">
         <f t="shared" si="0"/>
         <v>0.30000000000000071</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="79"/>
-      <c r="B18" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="48">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="77"/>
+      <c r="B18" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="45">
         <v>24.1</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="45">
         <v>24.2</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="45">
         <f t="shared" si="0"/>
         <v>9.9999999999997868E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C38BE4-1479-4DD3-99A5-A491DB95C8DB}">
   <dimension ref="A2:A9"/>
   <sheetViews>
@@ -3771,37 +3975,37 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="124.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="124.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>30</v>
       </c>
@@ -3815,4 +4019,51 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48B8C78-3FE1-4A3B-889F-729D24288CDE}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+    </row>
+    <row r="2" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Fittech/每日使用.xlsx
+++ b/Fittech/每日使用.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gary_kuo\Documents\GitHub\ImpDocuments\Fittech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557D812F-DB24-4135-B6FE-E3895C34F9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FC6B8C-6A5B-47C3-8580-FF825BE04FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{FE8E316F-3F34-44BD-B884-7A716B71C90E}"/>
+    <workbookView xWindow="24" yWindow="528" windowWidth="17280" windowHeight="8880" xr2:uid="{FE8E316F-3F34-44BD-B884-7A716B71C90E}"/>
   </bookViews>
   <sheets>
     <sheet name="每日事項" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="125">
   <si>
     <t>LBT03</t>
   </si>
@@ -999,6 +999,299 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1-1.1-2.4-1.4-2做1310nm的RR bar 測試，再麻煩你們安排一下時間</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>關於溫控韌體更新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.韌體尚未進行機台測試 
+2.已回報可以先用LBT05/06先進行更新測試待研發確認
+3.等生產跟我聯絡(5/29)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良率低的新上傳後  寄信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20250602(L)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LBT教育訓練</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QT368294_B2613487：2D3E,2D3F,2D40,2D41這四顆晶粒外觀正常卻無點測痕，待復判。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LBT 01：QT367960_B2613157 下機時，發現藍膜上BAR條歪斜，按完Clear bin 後顯示「exception tray&amp;pp」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QT370931-B2613545 上機前發現斷晶 寄信處理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QT368294-B2613493 機上斷晶  寄信處理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>確認300萬 RRBar拍照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左右測試站載台表面清潔，以棉棒沾酒精單方向擦拭，去除粉塵或汙漬。
+保養頻率: 每一盒作業前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作業指導書要更新事項</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.	定期保養項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程權限 如何避免出錯 直接過站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20250604(R)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MES
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.MES新增單盒過站要顯示作業機台號碼</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2.MES新增機台版本管控表
+3.MES新增管控載台(MES比對機台載台on)
+4.機限表(波段)
+5.新增MES檢查OCR出錯檢查
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+機台
+1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>同批不會在不同台作業(MES紀錄該批號</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日檢沒做不能作業
+3.機限表(波段)
+4.管控載台(MES比對機台載台on)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+單盒作業完成 =&gt; 單盒過站</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+OCR重複
+已Module OCR四碼檢查 不可短少位數
+數量:大於一顆:NG 少一顆:OCR列出並寫原因
+F025單盒 &gt; 10% =&gt;重工
+F065單盒 &gt; 20% =&gt;重做日檢
+良率低於40%不可過站(工程才可以)
+單批號不會混道不同批的鐵環號(鐵環號跟批號盒號綁一起，鐵環號唯一)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">六盒作業完成 =&gt; 整批過站
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>已Module OCR四碼檢查 不可短少位數</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+同批同一台作業
+F025整批 &gt;10%??
+F065整批 &gt; 4% 要Hold 工程過站</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+良率低於40%不可過站(工程才可以)
+同批號不會有不同台作業
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20250608
+日檢狀況記錄 LBT01~04都拿兩條來做
+LBT02有一條要重做(感覺要換針)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1097,6 +1390,31 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6/9  真空值-40 關閉離子風扇預計觀察兩天  看Bar有無旋轉</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="新細明體"/>
@@ -1138,289 +1456,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-1.1-2.4-1.4-2做1310nm的RR bar 測試，再麻煩你們安排一下時間</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>關於溫控韌體更新</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.韌體尚未進行機台測試 
-2.已回報可以先用LBT05/06先進行更新測試待研發確認
-3.等生產跟我聯絡(5/29)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>良率低的新上傳後  寄信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20250602(L)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LBT教育訓練</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QT368294_B2613487：2D3E,2D3F,2D40,2D41這四顆晶粒外觀正常卻無點測痕，待復判。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LBT 01：QT367960_B2613157 下機時，發現藍膜上BAR條歪斜，按完Clear bin 後顯示「exception tray&amp;pp」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QT370931-B2613545 上機前發現斷晶 寄信處理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QT368294-B2613493 機上斷晶  寄信處理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>確認300萬 RRBar拍照</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左右測試站載台表面清潔，以棉棒沾酒精單方向擦拭，去除粉塵或汙漬。
-保養頻率: 每一盒作業前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作業指導書要更新事項</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.	定期保養項目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工程權限 如何避免出錯 直接過站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">MES
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1.MES新增單盒過站要顯示作業機台號碼</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2.MES新增機台版本管控表
-3.MES新增管控載台(MES比對機台載台on)
-4.機限表(波段)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-機台
-1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>同批不會在不同台作業(MES紀錄該批號</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>日檢沒做不能作業
-3.機限表(波段)
-4.管控載台(MES比對機台載台on)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-單盒作業完成 =&gt; 單盒過站</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-OCR重複
-已Module OCR四碼檢查 不可短少位數
-數量:大於一顆:NG 少一顆:OCR列出並寫原因
-F025單盒 &gt; 10% =&gt;重工
-F065單盒 &gt; 20% =&gt;重做日檢
-良率低於40%不可過站(工程才可以)
-單批號不會混道不同批的鐵環號(鐵環號跟批號盒號綁一起，鐵環號唯一)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">六盒作業完成 =&gt; 整批過站
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>已Module OCR四碼檢查 不可短少位數</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-同批同一台作業
-F025整批 &gt;10%??
-F065整批 &gt; 4% 要Hold 工程過站</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-良率低於40%不可過站(工程才可以)
-同批號不會有不同台作業
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20250604(R)</t>
+    <t>首批輸入錯誤，建立異常宣導單(日檢宣導單)
+自主檢查表要改版
+操作指導書要檢查溫控_11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1431,7 +1469,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1550,6 +1588,15 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -1715,7 +1762,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1866,22 +1913,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1894,42 +1977,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1965,13 +2012,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2417,10 +2461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7832F80-ECE0-4F7F-9766-693EEFCDF792}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2473,7 +2517,7 @@
     </row>
     <row r="8" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
@@ -2545,7 +2589,9 @@
       <c r="A24" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
@@ -2604,7 +2650,7 @@
     </row>
     <row r="38" spans="1:2" ht="81" x14ac:dyDescent="0.3">
       <c r="A38" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>16</v>
@@ -2623,7 +2669,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>16</v>
@@ -2631,50 +2677,78 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="41" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="41" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="41" t="s">
+      <c r="B54" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="41" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="44" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A60" s="23" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="17" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2691,8 +2765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9B6B0A-16BD-47ED-8088-A27FC84CC971}">
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45:G46"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2718,51 +2792,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="G5" s="51" t="s">
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="G5" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
     </row>
     <row r="6" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -2797,7 +2871,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="51" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -2809,10 +2883,10 @@
       <c r="D7" s="7">
         <v>0.12509999999999999</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="51" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="18" t="s">
@@ -2824,13 +2898,13 @@
       <c r="J7" s="7">
         <v>0.18740000000000001</v>
       </c>
-      <c r="K7" s="60" t="s">
+      <c r="K7" s="63" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="55"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
@@ -2840,8 +2914,8 @@
       <c r="D8" s="5">
         <v>0</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="G8" s="56"/>
+      <c r="E8" s="54"/>
+      <c r="G8" s="68"/>
       <c r="H8" s="4" t="s">
         <v>24</v>
       </c>
@@ -2851,7 +2925,7 @@
       <c r="J8" s="5">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="K8" s="60"/>
+      <c r="K8" s="63"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
@@ -2860,11 +2934,11 @@
       <c r="U8" s="11"/>
     </row>
     <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G9" s="56"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="60"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="63"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
@@ -2873,7 +2947,7 @@
       <c r="U9" s="12"/>
     </row>
     <row r="10" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="G10" s="56"/>
+      <c r="G10" s="68"/>
       <c r="H10" s="6" t="s">
         <v>2</v>
       </c>
@@ -2883,7 +2957,7 @@
       <c r="J10" s="7">
         <v>0.27289999999999998</v>
       </c>
-      <c r="K10" s="60"/>
+      <c r="K10" s="63"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
@@ -2892,7 +2966,7 @@
       <c r="U10" s="49"/>
     </row>
     <row r="11" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="G11" s="56"/>
+      <c r="G11" s="68"/>
       <c r="H11" s="4" t="s">
         <v>2</v>
       </c>
@@ -2902,7 +2976,7 @@
       <c r="J11" s="5">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="K11" s="60"/>
+      <c r="K11" s="63"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
@@ -2911,14 +2985,14 @@
       <c r="U11" s="49"/>
     </row>
     <row r="12" spans="1:21" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="56"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="60"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="63"/>
     </row>
     <row r="13" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="G13" s="56"/>
+      <c r="G13" s="68"/>
       <c r="H13" s="18" t="s">
         <v>7</v>
       </c>
@@ -2928,10 +3002,10 @@
       <c r="J13" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K13" s="60"/>
+      <c r="K13" s="63"/>
     </row>
     <row r="14" spans="1:21" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G14" s="55"/>
+      <c r="G14" s="52"/>
       <c r="H14" s="4" t="s">
         <v>7</v>
       </c>
@@ -2941,75 +3015,75 @@
       <c r="J14" s="5">
         <v>1E-3</v>
       </c>
-      <c r="K14" s="60"/>
+      <c r="K14" s="63"/>
     </row>
     <row r="18" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
       <c r="R18" s="26"/>
       <c r="S18" s="26"/>
     </row>
     <row r="19" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="63"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
       <c r="R19" s="26"/>
       <c r="S19" s="26"/>
     </row>
     <row r="22" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="69" t="s">
+      <c r="G22" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="71"/>
-      <c r="M22" s="68" t="s">
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="67"/>
+      <c r="M22" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
     </row>
     <row r="23" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
@@ -3062,7 +3136,7 @@
       <c r="S23" s="20"/>
     </row>
     <row r="24" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="59" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -3074,11 +3148,11 @@
       <c r="D24" s="7">
         <v>0.10630000000000001</v>
       </c>
-      <c r="E24" s="60" t="s">
+      <c r="E24" s="63" t="s">
         <v>32</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="54" t="s">
+      <c r="G24" s="51" t="s">
         <v>10</v>
       </c>
       <c r="H24" s="6" t="s">
@@ -3090,10 +3164,10 @@
       <c r="J24" s="7">
         <v>0.30199999999999999</v>
       </c>
-      <c r="K24" s="52" t="s">
+      <c r="K24" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="M24" s="64" t="s">
+      <c r="M24" s="59" t="s">
         <v>23</v>
       </c>
       <c r="N24" s="6" t="s">
@@ -3105,14 +3179,14 @@
       <c r="P24" s="34">
         <v>0.12</v>
       </c>
-      <c r="Q24" s="52" t="s">
+      <c r="Q24" s="53" t="s">
         <v>16</v>
       </c>
       <c r="R24" s="22"/>
       <c r="S24" s="20"/>
     </row>
     <row r="25" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="64"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="4" t="s">
         <v>9</v>
       </c>
@@ -3122,9 +3196,9 @@
       <c r="D25" s="5">
         <v>2.29E-2</v>
       </c>
-      <c r="E25" s="60"/>
+      <c r="E25" s="63"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="55"/>
+      <c r="G25" s="52"/>
       <c r="H25" s="4" t="s">
         <v>11</v>
       </c>
@@ -3134,8 +3208,8 @@
       <c r="J25" s="5">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K25" s="53"/>
-      <c r="M25" s="64"/>
+      <c r="K25" s="54"/>
+      <c r="M25" s="59"/>
       <c r="N25" s="4" t="s">
         <v>31</v>
       </c>
@@ -3145,16 +3219,16 @@
       <c r="P25" s="5">
         <v>2E-3</v>
       </c>
-      <c r="Q25" s="53"/>
+      <c r="Q25" s="54"/>
       <c r="R25" s="22"/>
       <c r="S25" s="20"/>
     </row>
     <row r="26" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="64"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="60"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="63"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -3162,15 +3236,15 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="M26" s="14"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
       <c r="Q26" s="29"/>
       <c r="R26" s="22"/>
       <c r="S26" s="20"/>
     </row>
     <row r="27" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="64"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="6" t="s">
         <v>15</v>
       </c>
@@ -3180,7 +3254,7 @@
       <c r="D27" s="8">
         <v>0.17</v>
       </c>
-      <c r="E27" s="60"/>
+      <c r="E27" s="63"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -3196,7 +3270,7 @@
       <c r="S27" s="20"/>
     </row>
     <row r="28" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="64"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="9" t="s">
         <v>12</v>
       </c>
@@ -3206,7 +3280,7 @@
       <c r="D28" s="16">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="E28" s="52"/>
+      <c r="E28" s="53"/>
       <c r="M28" s="14"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
@@ -3230,13 +3304,13 @@
       <c r="S29" s="20"/>
     </row>
     <row r="31" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
@@ -3266,7 +3340,7 @@
       <c r="Q32" s="12"/>
     </row>
     <row r="33" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="59" t="s">
         <v>49</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -3278,17 +3352,17 @@
       <c r="D33" s="34">
         <v>0.11</v>
       </c>
-      <c r="E33" s="52" t="s">
+      <c r="E33" s="53" t="s">
         <v>16</v>
       </c>
       <c r="M33" s="14"/>
       <c r="N33" s="12"/>
       <c r="O33" s="27"/>
       <c r="P33" s="35"/>
-      <c r="Q33" s="61"/>
+      <c r="Q33" s="56"/>
     </row>
     <row r="34" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="64"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="4" t="s">
         <v>50</v>
       </c>
@@ -3298,12 +3372,12 @@
       <c r="D34" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E34" s="53"/>
+      <c r="E34" s="54"/>
       <c r="M34" s="14"/>
       <c r="N34" s="12"/>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
-      <c r="Q34" s="61"/>
+      <c r="Q34" s="56"/>
     </row>
     <row r="36" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
@@ -3327,48 +3401,48 @@
       <c r="E38" s="29"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="50" t="s">
+      <c r="A39" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="50"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
     </row>
     <row r="43" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="51" t="s">
+      <c r="A43" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="G43" s="51" t="s">
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="G43" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
     </row>
     <row r="44" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
@@ -3403,7 +3477,7 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="51" t="s">
         <v>74</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -3415,10 +3489,10 @@
       <c r="D45" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E45" s="52" t="s">
+      <c r="E45" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="G45" s="54" t="s">
+      <c r="G45" s="51" t="s">
         <v>96</v>
       </c>
       <c r="H45" s="4" t="s">
@@ -3430,10 +3504,10 @@
       <c r="J45" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K45" s="52"/>
+      <c r="K45" s="53"/>
     </row>
     <row r="46" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="55"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="4" t="s">
         <v>75</v>
       </c>
@@ -3443,22 +3517,25 @@
       <c r="D46" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="53"/>
-      <c r="G46" s="55"/>
+      <c r="E46" s="54"/>
+      <c r="G46" s="52"/>
       <c r="H46" s="4"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="53"/>
+      <c r="K46" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="A39:K40"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="G7:G14"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="K7:K14"/>
     <mergeCell ref="Q33:Q34"/>
     <mergeCell ref="N26:P26"/>
     <mergeCell ref="A18:Q19"/>
@@ -3475,16 +3552,13 @@
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="G7:G14"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="K7:K14"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="A39:K40"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="E45:E46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3695,8 +3769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BF5146-0FF3-4A5B-AF3E-B4BADDBE110F}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3720,8 +3794,8 @@
       <c r="D1" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
     </row>
     <row r="2" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
@@ -3748,7 +3822,7 @@
         <v>79</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
@@ -3786,8 +3860,8 @@
       <c r="C6" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="84" t="s">
-        <v>122</v>
+      <c r="F6" s="12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -4036,27 +4110,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
+      <c r="A1" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
     </row>
     <row r="2" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Fittech/每日使用.xlsx
+++ b/Fittech/每日使用.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gary_kuo\Documents\GitHub\ImpDocuments\Fittech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FC6B8C-6A5B-47C3-8580-FF825BE04FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAB6E81-866F-439C-B0DD-DB85CCF76C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="528" windowWidth="17280" windowHeight="8880" xr2:uid="{FE8E316F-3F34-44BD-B884-7A716B71C90E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FE8E316F-3F34-44BD-B884-7A716B71C90E}"/>
   </bookViews>
   <sheets>
     <sheet name="每日事項" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="127">
   <si>
     <t>LBT03</t>
   </si>
@@ -1459,6 +1459,14 @@
     <t>首批輸入錯誤，建立異常宣導單(日檢宣導單)
 自主檢查表要改版
 操作指導書要檢查溫控_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QT368859</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2614521</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1913,22 +1921,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1952,9 +1975,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1965,18 +1985,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2463,7 +2471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7832F80-ECE0-4F7F-9766-693EEFCDF792}">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
@@ -2763,18 +2771,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9B6B0A-16BD-47ED-8088-A27FC84CC971}">
-  <dimension ref="A1:U46"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -2792,51 +2799,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="G5" s="50" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="G5" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
     </row>
     <row r="6" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -2871,7 +2878,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="54" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -2883,10 +2890,10 @@
       <c r="D7" s="7">
         <v>0.12509999999999999</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="54" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="18" t="s">
@@ -2898,13 +2905,13 @@
       <c r="J7" s="7">
         <v>0.18740000000000001</v>
       </c>
-      <c r="K7" s="63" t="s">
+      <c r="K7" s="60" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
@@ -2914,8 +2921,8 @@
       <c r="D8" s="5">
         <v>0</v>
       </c>
-      <c r="E8" s="54"/>
-      <c r="G8" s="68"/>
+      <c r="E8" s="53"/>
+      <c r="G8" s="56"/>
       <c r="H8" s="4" t="s">
         <v>24</v>
       </c>
@@ -2925,7 +2932,7 @@
       <c r="J8" s="5">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="K8" s="63"/>
+      <c r="K8" s="60"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
@@ -2934,11 +2941,11 @@
       <c r="U8" s="11"/>
     </row>
     <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G9" s="68"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="63"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="60"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
@@ -2947,7 +2954,7 @@
       <c r="U9" s="12"/>
     </row>
     <row r="10" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="G10" s="68"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="6" t="s">
         <v>2</v>
       </c>
@@ -2957,7 +2964,7 @@
       <c r="J10" s="7">
         <v>0.27289999999999998</v>
       </c>
-      <c r="K10" s="63"/>
+      <c r="K10" s="60"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
@@ -2966,7 +2973,7 @@
       <c r="U10" s="49"/>
     </row>
     <row r="11" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="G11" s="68"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="4" t="s">
         <v>2</v>
       </c>
@@ -2976,7 +2983,7 @@
       <c r="J11" s="5">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="K11" s="63"/>
+      <c r="K11" s="60"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
@@ -2985,14 +2992,14 @@
       <c r="U11" s="49"/>
     </row>
     <row r="12" spans="1:21" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="68"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="63"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="60"/>
     </row>
     <row r="13" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="G13" s="68"/>
+      <c r="G13" s="56"/>
       <c r="H13" s="18" t="s">
         <v>7</v>
       </c>
@@ -3002,10 +3009,10 @@
       <c r="J13" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K13" s="63"/>
+      <c r="K13" s="60"/>
     </row>
     <row r="14" spans="1:21" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G14" s="52"/>
+      <c r="G14" s="55"/>
       <c r="H14" s="4" t="s">
         <v>7</v>
       </c>
@@ -3015,75 +3022,75 @@
       <c r="J14" s="5">
         <v>1E-3</v>
       </c>
-      <c r="K14" s="63"/>
+      <c r="K14" s="60"/>
     </row>
     <row r="18" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
       <c r="R18" s="26"/>
       <c r="S18" s="26"/>
     </row>
     <row r="19" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
       <c r="R19" s="26"/>
       <c r="S19" s="26"/>
     </row>
     <row r="22" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="65" t="s">
+      <c r="G22" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="67"/>
-      <c r="M22" s="64" t="s">
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="71"/>
+      <c r="M22" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="64"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
     </row>
     <row r="23" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
@@ -3136,7 +3143,7 @@
       <c r="S23" s="20"/>
     </row>
     <row r="24" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="64" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -3148,11 +3155,11 @@
       <c r="D24" s="7">
         <v>0.10630000000000001</v>
       </c>
-      <c r="E24" s="63" t="s">
+      <c r="E24" s="60" t="s">
         <v>32</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="54" t="s">
         <v>10</v>
       </c>
       <c r="H24" s="6" t="s">
@@ -3164,10 +3171,10 @@
       <c r="J24" s="7">
         <v>0.30199999999999999</v>
       </c>
-      <c r="K24" s="53" t="s">
+      <c r="K24" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="M24" s="59" t="s">
+      <c r="M24" s="64" t="s">
         <v>23</v>
       </c>
       <c r="N24" s="6" t="s">
@@ -3179,14 +3186,14 @@
       <c r="P24" s="34">
         <v>0.12</v>
       </c>
-      <c r="Q24" s="53" t="s">
+      <c r="Q24" s="52" t="s">
         <v>16</v>
       </c>
       <c r="R24" s="22"/>
       <c r="S24" s="20"/>
     </row>
     <row r="25" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="4" t="s">
         <v>9</v>
       </c>
@@ -3196,9 +3203,9 @@
       <c r="D25" s="5">
         <v>2.29E-2</v>
       </c>
-      <c r="E25" s="63"/>
+      <c r="E25" s="60"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="52"/>
+      <c r="G25" s="55"/>
       <c r="H25" s="4" t="s">
         <v>11</v>
       </c>
@@ -3208,8 +3215,8 @@
       <c r="J25" s="5">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K25" s="54"/>
-      <c r="M25" s="59"/>
+      <c r="K25" s="53"/>
+      <c r="M25" s="64"/>
       <c r="N25" s="4" t="s">
         <v>31</v>
       </c>
@@ -3219,16 +3226,16 @@
       <c r="P25" s="5">
         <v>2E-3</v>
       </c>
-      <c r="Q25" s="54"/>
+      <c r="Q25" s="53"/>
       <c r="R25" s="22"/>
       <c r="S25" s="20"/>
     </row>
     <row r="26" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="59"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="63"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="60"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -3236,15 +3243,15 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="M26" s="14"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
       <c r="Q26" s="29"/>
       <c r="R26" s="22"/>
       <c r="S26" s="20"/>
     </row>
     <row r="27" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="59"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="6" t="s">
         <v>15</v>
       </c>
@@ -3254,7 +3261,7 @@
       <c r="D27" s="8">
         <v>0.17</v>
       </c>
-      <c r="E27" s="63"/>
+      <c r="E27" s="60"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -3270,7 +3277,7 @@
       <c r="S27" s="20"/>
     </row>
     <row r="28" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="59"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="9" t="s">
         <v>12</v>
       </c>
@@ -3280,7 +3287,7 @@
       <c r="D28" s="16">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="E28" s="53"/>
+      <c r="E28" s="52"/>
       <c r="M28" s="14"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
@@ -3304,13 +3311,13 @@
       <c r="S29" s="20"/>
     </row>
     <row r="31" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
@@ -3340,7 +3347,7 @@
       <c r="Q32" s="12"/>
     </row>
     <row r="33" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="64" t="s">
         <v>49</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -3352,17 +3359,17 @@
       <c r="D33" s="34">
         <v>0.11</v>
       </c>
-      <c r="E33" s="53" t="s">
+      <c r="E33" s="52" t="s">
         <v>16</v>
       </c>
       <c r="M33" s="14"/>
       <c r="N33" s="12"/>
       <c r="O33" s="27"/>
       <c r="P33" s="35"/>
-      <c r="Q33" s="56"/>
+      <c r="Q33" s="61"/>
     </row>
     <row r="34" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="59"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="4" t="s">
         <v>50</v>
       </c>
@@ -3372,12 +3379,12 @@
       <c r="D34" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E34" s="54"/>
+      <c r="E34" s="53"/>
       <c r="M34" s="14"/>
       <c r="N34" s="12"/>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
-      <c r="Q34" s="56"/>
+      <c r="Q34" s="61"/>
     </row>
     <row r="36" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
@@ -3401,48 +3408,48 @@
       <c r="E38" s="29"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="55"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="55"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
     </row>
     <row r="43" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="50" t="s">
+      <c r="A43" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="G43" s="50" t="s">
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="G43" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="51"/>
     </row>
     <row r="44" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
@@ -3477,7 +3484,7 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="54" t="s">
         <v>74</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -3489,10 +3496,10 @@
       <c r="D45" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E45" s="53" t="s">
+      <c r="E45" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="G45" s="51" t="s">
+      <c r="G45" s="54" t="s">
         <v>96</v>
       </c>
       <c r="H45" s="4" t="s">
@@ -3504,10 +3511,10 @@
       <c r="J45" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K45" s="53"/>
+      <c r="K45" s="52"/>
     </row>
     <row r="46" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="52"/>
+      <c r="A46" s="55"/>
       <c r="B46" s="4" t="s">
         <v>75</v>
       </c>
@@ -3517,25 +3524,102 @@
       <c r="D46" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="54"/>
-      <c r="G46" s="52"/>
+      <c r="E46" s="53"/>
+      <c r="G46" s="55"/>
       <c r="H46" s="4"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="54"/>
+      <c r="K46" s="53"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="50"/>
+    </row>
+    <row r="53" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+    </row>
+    <row r="54" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="D55" s="7">
+        <v>0.23069999999999999</v>
+      </c>
+      <c r="E55" s="52"/>
+    </row>
+    <row r="56" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="55"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="G7:G14"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="K7:K14"/>
+  <mergeCells count="37">
+    <mergeCell ref="A49:K50"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="A39:K40"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="E45:E46"/>
     <mergeCell ref="Q33:Q34"/>
     <mergeCell ref="N26:P26"/>
     <mergeCell ref="A18:Q19"/>
@@ -3552,13 +3636,16 @@
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="E33:E34"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="A39:K40"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="G7:G14"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="K7:K14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Fittech/每日使用.xlsx
+++ b/Fittech/每日使用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gary_kuo\Documents\GitHub\ImpDocuments\Fittech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAB6E81-866F-439C-B0DD-DB85CCF76C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBBDE01-C5F8-4241-95CB-C4C713E6C01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FE8E316F-3F34-44BD-B884-7A716B71C90E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="131">
   <si>
     <t>LBT03</t>
   </si>
@@ -1456,17 +1456,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>QT368859</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2614521</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QT368184 B2613439 clearbin失敗已處理 該批次良率小於40趴過站後補上異常聯絡單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>首批輸入錯誤，建立異常宣導單(日檢宣導單)
 自主檢查表要改版
-操作指導書要檢查溫控_11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QT368859</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B2614521</t>
+操作指導書要檢查溫控_11
+要跟品保拿昨天會議紀錄
+LBT考題要增加一題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">QT368979 B2613623 clearbin失敗已處理 斷晶客戶還沒回信
+131F  1400有重複
+B2614505   1400(0.6) 131F(3.6) 
+B2614651   1400(0.2) 131F(0.3) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2614523</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LBT05 06還沒更新軟體</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1770,7 +1791,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1921,70 +1942,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2025,6 +2046,24 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2469,10 +2508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7832F80-ECE0-4F7F-9766-693EEFCDF792}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2753,10 +2792,28 @@
       <c r="A62" s="17" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="B62" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="81" x14ac:dyDescent="0.3">
       <c r="A64" s="17" t="s">
-        <v>124</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="81" x14ac:dyDescent="0.3">
+      <c r="A68" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2771,10 +2828,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9B6B0A-16BD-47ED-8088-A27FC84CC971}">
-  <dimension ref="A1:U56"/>
+  <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55:E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2799,51 +2856,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="G5" s="51" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="G5" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
     </row>
     <row r="6" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -2878,7 +2935,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="52" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -2890,10 +2947,10 @@
       <c r="D7" s="7">
         <v>0.12509999999999999</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="52" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="18" t="s">
@@ -2905,13 +2962,13 @@
       <c r="J7" s="7">
         <v>0.18740000000000001</v>
       </c>
-      <c r="K7" s="60" t="s">
+      <c r="K7" s="50" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="55"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
@@ -2921,8 +2978,8 @@
       <c r="D8" s="5">
         <v>0</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="G8" s="56"/>
+      <c r="E8" s="61"/>
+      <c r="G8" s="53"/>
       <c r="H8" s="4" t="s">
         <v>24</v>
       </c>
@@ -2932,7 +2989,7 @@
       <c r="J8" s="5">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="K8" s="60"/>
+      <c r="K8" s="50"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
@@ -2941,11 +2998,11 @@
       <c r="U8" s="11"/>
     </row>
     <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G9" s="56"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="60"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="50"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
@@ -2954,7 +3011,7 @@
       <c r="U9" s="12"/>
     </row>
     <row r="10" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="G10" s="56"/>
+      <c r="G10" s="53"/>
       <c r="H10" s="6" t="s">
         <v>2</v>
       </c>
@@ -2964,7 +3021,7 @@
       <c r="J10" s="7">
         <v>0.27289999999999998</v>
       </c>
-      <c r="K10" s="60"/>
+      <c r="K10" s="50"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
@@ -2973,7 +3030,7 @@
       <c r="U10" s="49"/>
     </row>
     <row r="11" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="G11" s="56"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="4" t="s">
         <v>2</v>
       </c>
@@ -2983,7 +3040,7 @@
       <c r="J11" s="5">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="K11" s="60"/>
+      <c r="K11" s="50"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
@@ -2992,14 +3049,14 @@
       <c r="U11" s="49"/>
     </row>
     <row r="12" spans="1:21" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="56"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="60"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="G13" s="56"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="18" t="s">
         <v>7</v>
       </c>
@@ -3009,10 +3066,10 @@
       <c r="J13" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K13" s="60"/>
+      <c r="K13" s="50"/>
     </row>
     <row r="14" spans="1:21" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G14" s="55"/>
+      <c r="G14" s="54"/>
       <c r="H14" s="4" t="s">
         <v>7</v>
       </c>
@@ -3022,75 +3079,75 @@
       <c r="J14" s="5">
         <v>1E-3</v>
       </c>
-      <c r="K14" s="60"/>
+      <c r="K14" s="50"/>
     </row>
     <row r="18" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
       <c r="R18" s="26"/>
       <c r="S18" s="26"/>
     </row>
     <row r="19" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="63"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
       <c r="R19" s="26"/>
       <c r="S19" s="26"/>
     </row>
     <row r="22" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="69" t="s">
+      <c r="G22" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="71"/>
-      <c r="M22" s="68" t="s">
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="70"/>
+      <c r="M22" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
     </row>
     <row r="23" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
@@ -3143,7 +3200,7 @@
       <c r="S23" s="20"/>
     </row>
     <row r="24" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="51" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -3155,11 +3212,11 @@
       <c r="D24" s="7">
         <v>0.10630000000000001</v>
       </c>
-      <c r="E24" s="60" t="s">
+      <c r="E24" s="50" t="s">
         <v>32</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="54" t="s">
+      <c r="G24" s="52" t="s">
         <v>10</v>
       </c>
       <c r="H24" s="6" t="s">
@@ -3171,10 +3228,10 @@
       <c r="J24" s="7">
         <v>0.30199999999999999</v>
       </c>
-      <c r="K24" s="52" t="s">
+      <c r="K24" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="M24" s="64" t="s">
+      <c r="M24" s="51" t="s">
         <v>23</v>
       </c>
       <c r="N24" s="6" t="s">
@@ -3186,14 +3243,14 @@
       <c r="P24" s="34">
         <v>0.12</v>
       </c>
-      <c r="Q24" s="52" t="s">
+      <c r="Q24" s="60" t="s">
         <v>16</v>
       </c>
       <c r="R24" s="22"/>
       <c r="S24" s="20"/>
     </row>
     <row r="25" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="64"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="4" t="s">
         <v>9</v>
       </c>
@@ -3203,9 +3260,9 @@
       <c r="D25" s="5">
         <v>2.29E-2</v>
       </c>
-      <c r="E25" s="60"/>
+      <c r="E25" s="50"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="55"/>
+      <c r="G25" s="54"/>
       <c r="H25" s="4" t="s">
         <v>11</v>
       </c>
@@ -3215,8 +3272,8 @@
       <c r="J25" s="5">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K25" s="53"/>
-      <c r="M25" s="64"/>
+      <c r="K25" s="61"/>
+      <c r="M25" s="51"/>
       <c r="N25" s="4" t="s">
         <v>31</v>
       </c>
@@ -3226,16 +3283,16 @@
       <c r="P25" s="5">
         <v>2E-3</v>
       </c>
-      <c r="Q25" s="53"/>
+      <c r="Q25" s="61"/>
       <c r="R25" s="22"/>
       <c r="S25" s="20"/>
     </row>
     <row r="26" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="64"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="65"/>
       <c r="C26" s="66"/>
       <c r="D26" s="67"/>
-      <c r="E26" s="60"/>
+      <c r="E26" s="50"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -3243,15 +3300,15 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="M26" s="14"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
       <c r="Q26" s="29"/>
       <c r="R26" s="22"/>
       <c r="S26" s="20"/>
     </row>
     <row r="27" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="64"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="6" t="s">
         <v>15</v>
       </c>
@@ -3261,7 +3318,7 @@
       <c r="D27" s="8">
         <v>0.17</v>
       </c>
-      <c r="E27" s="60"/>
+      <c r="E27" s="50"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -3277,7 +3334,7 @@
       <c r="S27" s="20"/>
     </row>
     <row r="28" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="64"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="9" t="s">
         <v>12</v>
       </c>
@@ -3287,7 +3344,7 @@
       <c r="D28" s="16">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="E28" s="52"/>
+      <c r="E28" s="60"/>
       <c r="M28" s="14"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
@@ -3311,13 +3368,13 @@
       <c r="S29" s="20"/>
     </row>
     <row r="31" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
@@ -3347,7 +3404,7 @@
       <c r="Q32" s="12"/>
     </row>
     <row r="33" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="51" t="s">
         <v>49</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -3359,17 +3416,17 @@
       <c r="D33" s="34">
         <v>0.11</v>
       </c>
-      <c r="E33" s="52" t="s">
+      <c r="E33" s="60" t="s">
         <v>16</v>
       </c>
       <c r="M33" s="14"/>
       <c r="N33" s="12"/>
       <c r="O33" s="27"/>
       <c r="P33" s="35"/>
-      <c r="Q33" s="61"/>
+      <c r="Q33" s="71"/>
     </row>
     <row r="34" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="64"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="4" t="s">
         <v>50</v>
       </c>
@@ -3379,12 +3436,12 @@
       <c r="D34" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E34" s="53"/>
+      <c r="E34" s="61"/>
       <c r="M34" s="14"/>
       <c r="N34" s="12"/>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
-      <c r="Q34" s="61"/>
+      <c r="Q34" s="71"/>
     </row>
     <row r="36" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
@@ -3408,48 +3465,48 @@
       <c r="E38" s="29"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="50" t="s">
+      <c r="A39" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="50"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
     </row>
     <row r="43" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="51" t="s">
+      <c r="A43" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="G43" s="51" t="s">
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="G43" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
     </row>
     <row r="44" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
@@ -3484,7 +3541,7 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="52" t="s">
         <v>74</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -3496,10 +3553,10 @@
       <c r="D45" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E45" s="52" t="s">
+      <c r="E45" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="G45" s="54" t="s">
+      <c r="G45" s="52" t="s">
         <v>96</v>
       </c>
       <c r="H45" s="4" t="s">
@@ -3511,10 +3568,10 @@
       <c r="J45" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K45" s="52"/>
+      <c r="K45" s="60"/>
     </row>
     <row r="46" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="55"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="4" t="s">
         <v>75</v>
       </c>
@@ -3524,49 +3581,49 @@
       <c r="D46" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="53"/>
-      <c r="G46" s="55"/>
+      <c r="E46" s="61"/>
+      <c r="G46" s="54"/>
       <c r="H46" s="4"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="53"/>
+      <c r="K46" s="61"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="50" t="s">
+      <c r="A49" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="50"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="50"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="50"/>
+      <c r="A50" s="62"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="62"/>
+      <c r="K50" s="62"/>
     </row>
     <row r="53" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="51" t="s">
+      <c r="A53" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
     </row>
     <row r="54" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
@@ -3586,11 +3643,11 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="54" t="s">
+      <c r="A55" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="C55" s="7">
         <v>0.45400000000000001</v>
@@ -3598,29 +3655,99 @@
       <c r="D55" s="7">
         <v>0.23069999999999999</v>
       </c>
-      <c r="E55" s="52"/>
+      <c r="E55" s="60" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="56" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="55"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="53"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" s="5">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0</v>
+      </c>
+      <c r="E56" s="85"/>
+    </row>
+    <row r="57" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="51"/>
+      <c r="B57" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0.5363</v>
+      </c>
+      <c r="D57" s="7">
+        <v>0.1046</v>
+      </c>
+      <c r="E57" s="85"/>
+    </row>
+    <row r="58" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="51"/>
+      <c r="B58" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" s="5">
+        <v>0.57579999999999998</v>
+      </c>
+      <c r="D58" s="5">
+        <v>0</v>
+      </c>
+      <c r="E58" s="61"/>
+    </row>
+    <row r="60" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="86"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="86"/>
+      <c r="E60" s="86"/>
+    </row>
+    <row r="61" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="87"/>
+      <c r="B61" s="87"/>
+      <c r="C61" s="87"/>
+      <c r="D61" s="87"/>
+      <c r="E61" s="87"/>
+    </row>
+    <row r="62" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="89"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="88"/>
+      <c r="E62" s="90"/>
+    </row>
+    <row r="63" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="89"/>
+      <c r="B63" s="87"/>
+      <c r="C63" s="88"/>
+      <c r="D63" s="88"/>
+      <c r="E63" s="90"/>
+    </row>
+    <row r="64" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="89"/>
+      <c r="B64" s="87"/>
+      <c r="C64" s="88"/>
+      <c r="D64" s="88"/>
+      <c r="E64" s="90"/>
+    </row>
+    <row r="65" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="89"/>
+      <c r="B65" s="87"/>
+      <c r="C65" s="88"/>
+      <c r="D65" s="88"/>
+      <c r="E65" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A49:K50"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="G45:G46"/>
     <mergeCell ref="K45:K46"/>
-    <mergeCell ref="A39:K40"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="N26:P26"/>
     <mergeCell ref="A18:Q19"/>
     <mergeCell ref="A22:E22"/>
@@ -3633,19 +3760,25 @@
     <mergeCell ref="K24:K25"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="G22:K22"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="K7:K14"/>
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A55:A58"/>
     <mergeCell ref="U10:U11"/>
     <mergeCell ref="G7:G14"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H12:J12"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="K7:K14"/>
+    <mergeCell ref="A39:K40"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="A49:K50"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="G45:G46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Fittech/每日使用.xlsx
+++ b/Fittech/每日使用.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gary_kuo\Documents\GitHub\ImpDocuments\Fittech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBBDE01-C5F8-4241-95CB-C4C713E6C01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C39237-1839-4C08-896E-D8B4DA0D366A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FE8E316F-3F34-44BD-B884-7A716B71C90E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{FE8E316F-3F34-44BD-B884-7A716B71C90E}"/>
   </bookViews>
   <sheets>
     <sheet name="每日事項" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="針數紀錄" sheetId="7" r:id="rId4"/>
     <sheet name="常用線上表單" sheetId="3" r:id="rId5"/>
     <sheet name="作業指導書更新" sheetId="8" r:id="rId6"/>
+    <sheet name="掉晶紀錄" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="150">
   <si>
     <t>LBT03</t>
   </si>
@@ -1488,6 +1489,82 @@
   </si>
   <si>
     <t>LBT05 06還沒更新軟體</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發生時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/18_05:10 AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/18_05:18 AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/18_04:50 AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/19_02:30 AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/19_02:35 AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/19_06:12 AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/18_10:05 AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/18_11:12 AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入料到載台黏晶沒放到平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/19_10:30 AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入料吸真空失敗掉在入料端附近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出料到藍膜沒吸好掉在載台旁邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/19_04:05 AM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1791,7 +1868,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1939,63 +2016,87 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2005,7 +2106,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2047,23 +2148,20 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2536,8 +2634,8 @@
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
@@ -2830,7 +2928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9B6B0A-16BD-47ED-8088-A27FC84CC971}">
   <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="E55" sqref="E55:E58"/>
     </sheetView>
   </sheetViews>
@@ -2856,51 +2954,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="G5" s="58" t="s">
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="G5" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
     </row>
     <row r="6" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -2935,7 +3033,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="58" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -2947,10 +3045,10 @@
       <c r="D7" s="7">
         <v>0.12509999999999999</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="58" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="18" t="s">
@@ -2962,13 +3060,13 @@
       <c r="J7" s="7">
         <v>0.18740000000000001</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="K7" s="72" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
@@ -2978,8 +3076,8 @@
       <c r="D8" s="5">
         <v>0</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="G8" s="53"/>
+      <c r="E8" s="75"/>
+      <c r="G8" s="60"/>
       <c r="H8" s="4" t="s">
         <v>24</v>
       </c>
@@ -2989,7 +3087,7 @@
       <c r="J8" s="5">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="K8" s="50"/>
+      <c r="K8" s="72"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
@@ -2998,11 +3096,11 @@
       <c r="U8" s="11"/>
     </row>
     <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G9" s="53"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="50"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="72"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
@@ -3011,7 +3109,7 @@
       <c r="U9" s="12"/>
     </row>
     <row r="10" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="G10" s="53"/>
+      <c r="G10" s="60"/>
       <c r="H10" s="6" t="s">
         <v>2</v>
       </c>
@@ -3021,16 +3119,16 @@
       <c r="J10" s="7">
         <v>0.27289999999999998</v>
       </c>
-      <c r="K10" s="50"/>
+      <c r="K10" s="72"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
-      <c r="U10" s="49"/>
+      <c r="U10" s="56"/>
     </row>
     <row r="11" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="G11" s="53"/>
+      <c r="G11" s="60"/>
       <c r="H11" s="4" t="s">
         <v>2</v>
       </c>
@@ -3040,23 +3138,23 @@
       <c r="J11" s="5">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="K11" s="50"/>
+      <c r="K11" s="72"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="49"/>
+      <c r="U11" s="56"/>
     </row>
     <row r="12" spans="1:21" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="53"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="50"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="72"/>
     </row>
     <row r="13" spans="1:21" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="G13" s="53"/>
+      <c r="G13" s="60"/>
       <c r="H13" s="18" t="s">
         <v>7</v>
       </c>
@@ -3066,10 +3164,10 @@
       <c r="J13" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K13" s="50"/>
+      <c r="K13" s="72"/>
     </row>
     <row r="14" spans="1:21" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G14" s="54"/>
+      <c r="G14" s="59"/>
       <c r="H14" s="4" t="s">
         <v>7</v>
       </c>
@@ -3079,75 +3177,75 @@
       <c r="J14" s="5">
         <v>1E-3</v>
       </c>
-      <c r="K14" s="50"/>
+      <c r="K14" s="72"/>
     </row>
     <row r="18" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="64"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
       <c r="R18" s="26"/>
       <c r="S18" s="26"/>
     </row>
     <row r="19" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
       <c r="R19" s="26"/>
       <c r="S19" s="26"/>
     </row>
     <row r="22" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="68" t="s">
+      <c r="G22" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="70"/>
-      <c r="M22" s="59" t="s">
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="78"/>
+      <c r="M22" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="74"/>
     </row>
     <row r="23" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
@@ -3200,7 +3298,7 @@
       <c r="S23" s="20"/>
     </row>
     <row r="24" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="68" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -3212,11 +3310,11 @@
       <c r="D24" s="7">
         <v>0.10630000000000001</v>
       </c>
-      <c r="E24" s="50" t="s">
+      <c r="E24" s="72" t="s">
         <v>32</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="52" t="s">
+      <c r="G24" s="58" t="s">
         <v>10</v>
       </c>
       <c r="H24" s="6" t="s">
@@ -3228,10 +3326,10 @@
       <c r="J24" s="7">
         <v>0.30199999999999999</v>
       </c>
-      <c r="K24" s="60" t="s">
+      <c r="K24" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="M24" s="51" t="s">
+      <c r="M24" s="68" t="s">
         <v>23</v>
       </c>
       <c r="N24" s="6" t="s">
@@ -3243,14 +3341,14 @@
       <c r="P24" s="34">
         <v>0.12</v>
       </c>
-      <c r="Q24" s="60" t="s">
+      <c r="Q24" s="73" t="s">
         <v>16</v>
       </c>
       <c r="R24" s="22"/>
       <c r="S24" s="20"/>
     </row>
     <row r="25" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="51"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="4" t="s">
         <v>9</v>
       </c>
@@ -3260,9 +3358,9 @@
       <c r="D25" s="5">
         <v>2.29E-2</v>
       </c>
-      <c r="E25" s="50"/>
+      <c r="E25" s="72"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="54"/>
+      <c r="G25" s="59"/>
       <c r="H25" s="4" t="s">
         <v>11</v>
       </c>
@@ -3272,8 +3370,8 @@
       <c r="J25" s="5">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K25" s="61"/>
-      <c r="M25" s="51"/>
+      <c r="K25" s="75"/>
+      <c r="M25" s="68"/>
       <c r="N25" s="4" t="s">
         <v>31</v>
       </c>
@@ -3283,16 +3381,16 @@
       <c r="P25" s="5">
         <v>2E-3</v>
       </c>
-      <c r="Q25" s="61"/>
+      <c r="Q25" s="75"/>
       <c r="R25" s="22"/>
       <c r="S25" s="20"/>
     </row>
     <row r="26" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="51"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="50"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="72"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -3300,15 +3398,15 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="M26" s="14"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="63"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
       <c r="Q26" s="29"/>
       <c r="R26" s="22"/>
       <c r="S26" s="20"/>
     </row>
     <row r="27" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="51"/>
+      <c r="A27" s="68"/>
       <c r="B27" s="6" t="s">
         <v>15</v>
       </c>
@@ -3318,7 +3416,7 @@
       <c r="D27" s="8">
         <v>0.17</v>
       </c>
-      <c r="E27" s="50"/>
+      <c r="E27" s="72"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -3334,7 +3432,7 @@
       <c r="S27" s="20"/>
     </row>
     <row r="28" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="51"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="9" t="s">
         <v>12</v>
       </c>
@@ -3344,7 +3442,7 @@
       <c r="D28" s="16">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="E28" s="60"/>
+      <c r="E28" s="73"/>
       <c r="M28" s="14"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
@@ -3368,13 +3466,13 @@
       <c r="S29" s="20"/>
     </row>
     <row r="31" spans="1:19" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
@@ -3404,7 +3502,7 @@
       <c r="Q32" s="12"/>
     </row>
     <row r="33" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="68" t="s">
         <v>49</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -3416,17 +3514,17 @@
       <c r="D33" s="34">
         <v>0.11</v>
       </c>
-      <c r="E33" s="60" t="s">
+      <c r="E33" s="73" t="s">
         <v>16</v>
       </c>
       <c r="M33" s="14"/>
       <c r="N33" s="12"/>
       <c r="O33" s="27"/>
       <c r="P33" s="35"/>
-      <c r="Q33" s="71"/>
+      <c r="Q33" s="65"/>
     </row>
     <row r="34" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="51"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="4" t="s">
         <v>50</v>
       </c>
@@ -3436,12 +3534,12 @@
       <c r="D34" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E34" s="61"/>
+      <c r="E34" s="75"/>
       <c r="M34" s="14"/>
       <c r="N34" s="12"/>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
-      <c r="Q34" s="71"/>
+      <c r="Q34" s="65"/>
     </row>
     <row r="36" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
@@ -3465,48 +3563,48 @@
       <c r="E38" s="29"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="64"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="62"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
+      <c r="A40" s="64"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="64"/>
     </row>
     <row r="43" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="58" t="s">
+      <c r="A43" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="G43" s="58" t="s">
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="G43" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
     </row>
     <row r="44" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
@@ -3541,7 +3639,7 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="58" t="s">
         <v>74</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -3553,10 +3651,10 @@
       <c r="D45" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E45" s="60" t="s">
+      <c r="E45" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="G45" s="52" t="s">
+      <c r="G45" s="58" t="s">
         <v>96</v>
       </c>
       <c r="H45" s="4" t="s">
@@ -3568,10 +3666,10 @@
       <c r="J45" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K45" s="60"/>
+      <c r="K45" s="73"/>
     </row>
     <row r="46" spans="1:17" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="54"/>
+      <c r="A46" s="59"/>
       <c r="B46" s="4" t="s">
         <v>75</v>
       </c>
@@ -3581,49 +3679,49 @@
       <c r="D46" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="61"/>
-      <c r="G46" s="54"/>
+      <c r="E46" s="75"/>
+      <c r="G46" s="59"/>
       <c r="H46" s="4"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="61"/>
+      <c r="K46" s="75"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="62" t="s">
+      <c r="A49" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="62"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="64"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="62"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="62"/>
-      <c r="J50" s="62"/>
-      <c r="K50" s="62"/>
+      <c r="A50" s="64"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="64"/>
+      <c r="K50" s="64"/>
     </row>
     <row r="53" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="58" t="s">
+      <c r="A53" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
     </row>
     <row r="54" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
@@ -3643,7 +3741,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="51" t="s">
+      <c r="A55" s="68" t="s">
         <v>124</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -3655,12 +3753,12 @@
       <c r="D55" s="7">
         <v>0.23069999999999999</v>
       </c>
-      <c r="E55" s="60" t="s">
+      <c r="E55" s="73" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="51"/>
+      <c r="A56" s="68"/>
       <c r="B56" s="4" t="s">
         <v>125</v>
       </c>
@@ -3670,10 +3768,10 @@
       <c r="D56" s="5">
         <v>0</v>
       </c>
-      <c r="E56" s="85"/>
+      <c r="E56" s="79"/>
     </row>
     <row r="57" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="51"/>
+      <c r="A57" s="68"/>
       <c r="B57" s="6" t="s">
         <v>129</v>
       </c>
@@ -3683,10 +3781,10 @@
       <c r="D57" s="7">
         <v>0.1046</v>
       </c>
-      <c r="E57" s="85"/>
+      <c r="E57" s="79"/>
     </row>
     <row r="58" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="51"/>
+      <c r="A58" s="68"/>
       <c r="B58" s="4" t="s">
         <v>129</v>
       </c>
@@ -3696,49 +3794,45 @@
       <c r="D58" s="5">
         <v>0</v>
       </c>
-      <c r="E58" s="61"/>
+      <c r="E58" s="75"/>
     </row>
     <row r="60" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="86"/>
-      <c r="B60" s="86"/>
-      <c r="C60" s="86"/>
-      <c r="D60" s="86"/>
-      <c r="E60" s="86"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
     </row>
     <row r="61" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="87"/>
-      <c r="B61" s="87"/>
-      <c r="C61" s="87"/>
-      <c r="D61" s="87"/>
-      <c r="E61" s="87"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
     </row>
     <row r="62" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="89"/>
-      <c r="B62" s="87"/>
-      <c r="C62" s="88"/>
-      <c r="D62" s="88"/>
-      <c r="E62" s="90"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
     </row>
     <row r="63" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="89"/>
-      <c r="B63" s="87"/>
-      <c r="C63" s="88"/>
-      <c r="D63" s="88"/>
-      <c r="E63" s="90"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
     </row>
     <row r="64" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="89"/>
-      <c r="B64" s="87"/>
-      <c r="C64" s="88"/>
-      <c r="D64" s="88"/>
-      <c r="E64" s="90"/>
-    </row>
-    <row r="65" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="89"/>
-      <c r="B65" s="87"/>
-      <c r="C65" s="88"/>
-      <c r="D65" s="88"/>
-      <c r="E65" s="90"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+    </row>
+    <row r="65" spans="1:4" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="14"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -3748,6 +3842,30 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="A7:A8"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="K7:K14"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A49:K50"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="G7:G14"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="A39:K40"/>
+    <mergeCell ref="Q33:Q34"/>
     <mergeCell ref="N26:P26"/>
     <mergeCell ref="A18:Q19"/>
     <mergeCell ref="A22:E22"/>
@@ -3755,30 +3873,6 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E24:E28"/>
     <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="K7:K14"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="G7:G14"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="A39:K40"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="A49:K50"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="G45:G46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3801,7 +3895,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="81" x14ac:dyDescent="0.3">
-      <c r="A1" s="72">
+      <c r="A1" s="80">
         <v>20250501</v>
       </c>
       <c r="B1" s="31" t="s">
@@ -3809,13 +3903,13 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
+      <c r="A2" s="80"/>
       <c r="B2" s="31" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="81" x14ac:dyDescent="0.3">
-      <c r="A3" s="72"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="32" t="s">
         <v>40</v>
       </c>
@@ -3841,7 +3935,7 @@
       <c r="B8" s="20"/>
     </row>
     <row r="9" spans="1:2" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="72">
+      <c r="A9" s="80">
         <v>20250502</v>
       </c>
       <c r="B9" s="30" t="s">
@@ -3849,19 +3943,19 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="72"/>
+      <c r="A10" s="80"/>
       <c r="B10" s="30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
+      <c r="A11" s="80"/>
       <c r="B11" s="30" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="72">
+      <c r="A14" s="80">
         <v>20250503</v>
       </c>
       <c r="B14" s="30" t="s">
@@ -3869,19 +3963,19 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="81" x14ac:dyDescent="0.3">
-      <c r="A15" s="72"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="81" x14ac:dyDescent="0.3">
-      <c r="A16" s="72"/>
+      <c r="A16" s="80"/>
       <c r="B16" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="81" x14ac:dyDescent="0.3">
-      <c r="A19" s="72">
+      <c r="A19" s="80">
         <v>20250504</v>
       </c>
       <c r="B19" s="30" t="s">
@@ -3889,7 +3983,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="72"/>
+      <c r="A20" s="80"/>
       <c r="B20" s="30" t="s">
         <v>47</v>
       </c>
@@ -3898,7 +3992,7 @@
       <c r="A21" s="33"/>
     </row>
     <row r="28" spans="1:2" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="72">
+      <c r="A28" s="80">
         <v>20250505</v>
       </c>
       <c r="B28" s="30" t="s">
@@ -3906,13 +4000,13 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="72"/>
+      <c r="A29" s="80"/>
       <c r="B29" s="30" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="72"/>
+      <c r="A30" s="80"/>
       <c r="B30" s="30" t="s">
         <v>53</v>
       </c>
@@ -3932,7 +4026,7 @@
       <c r="A35" s="33"/>
     </row>
     <row r="36" spans="1:2" ht="81" x14ac:dyDescent="0.3">
-      <c r="A36" s="73">
+      <c r="A36" s="81">
         <v>20250513</v>
       </c>
       <c r="B36" s="30" t="s">
@@ -3940,19 +4034,19 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="74"/>
+      <c r="A37" s="82"/>
       <c r="B37" s="30" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="75"/>
+      <c r="A38" s="83"/>
       <c r="B38" s="30" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="72">
+      <c r="A41" s="80">
         <v>20250522</v>
       </c>
       <c r="B41" s="30" t="s">
@@ -3960,7 +4054,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="162" x14ac:dyDescent="0.3">
-      <c r="A42" s="72"/>
+      <c r="A42" s="80"/>
       <c r="B42" s="30" t="s">
         <v>80</v>
       </c>
@@ -4006,16 +4100,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="82" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
     </row>
     <row r="2" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
@@ -4085,13 +4179,13 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="81"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="89"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
@@ -4111,7 +4205,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="84" t="s">
         <v>91</v>
       </c>
       <c r="B11" s="45" t="s">
@@ -4129,7 +4223,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="77"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="45" t="s">
         <v>93</v>
       </c>
@@ -4145,7 +4239,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="84" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="45" t="s">
@@ -4163,7 +4257,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="77"/>
+      <c r="A14" s="85"/>
       <c r="B14" s="45" t="s">
         <v>93</v>
       </c>
@@ -4179,7 +4273,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="84" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="45" t="s">
@@ -4197,7 +4291,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="77"/>
+      <c r="A16" s="85"/>
       <c r="B16" s="45" t="s">
         <v>93</v>
       </c>
@@ -4213,7 +4307,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="84" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="45" t="s">
@@ -4231,7 +4325,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="77"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="45" t="s">
         <v>93</v>
       </c>
@@ -4330,20 +4424,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
     </row>
     <row r="2" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -4360,4 +4454,280 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E64A111-9738-4430-A0D5-CFF15ABF7783}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="34.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="96"/>
+      <c r="B2" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="93">
+        <v>20250618</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="93"/>
+      <c r="B4" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="93"/>
+      <c r="B5" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="97"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="E6" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="94">
+        <v>3</v>
+      </c>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94">
+        <v>4</v>
+      </c>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="93">
+        <v>20250619</v>
+      </c>
+      <c r="B9" s="56"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="93"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="93"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="93"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="94">
+        <v>4</v>
+      </c>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="93">
+        <v>20250623</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="93"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="93"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="93"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="53" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B13:D13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>